--- a/experiments/EVCSP Max Cols/data.xlsx
+++ b/experiments/EVCSP Max Cols/data.xlsx
@@ -8,24 +8,25 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thoma\Dropbox\Master Thesis\experiments\EVCSP Max Cols\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BD1CCD03-6791-4D4D-B198-ED0996EB3D70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{12E4D723-FF1C-405A-97C8-72BF002263C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="16080" windowWidth="29040" windowHeight="15720" xr2:uid="{D24B2BB2-86A5-4358-BE4A-1E85BB6FDF52}"/>
   </bookViews>
   <sheets>
-    <sheet name="data" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
+    <sheet name="data" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
+  <pivotCaches>
+    <pivotCache cacheId="13" r:id="rId3"/>
+  </pivotCaches>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>max vh cols</t>
-  </si>
-  <si>
-    <t>max cr colsint vsp value</t>
   </si>
   <si>
     <t>int csp value</t>
@@ -51,11 +52,53 @@
   <si>
     <t>total runtime</t>
   </si>
+  <si>
+    <t>max cr cols</t>
+  </si>
+  <si>
+    <t>int vsp value</t>
+  </si>
+  <si>
+    <t>total cost</t>
+  </si>
+  <si>
+    <t>mipgaprounded</t>
+  </si>
+  <si>
+    <t>Row Labels</t>
+  </si>
+  <si>
+    <t>Grand Total</t>
+  </si>
+  <si>
+    <t>Average of total cost</t>
+  </si>
+  <si>
+    <t>Average of int vsp cols</t>
+  </si>
+  <si>
+    <t>Average of int csp cols</t>
+  </si>
+  <si>
+    <t>cg runtime</t>
+  </si>
+  <si>
+    <t>Average of cg runtime</t>
+  </si>
+  <si>
+    <t>Average of int vsp value</t>
+  </si>
+  <si>
+    <t>Average of int csp value</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0"/>
+  </numFmts>
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -533,9 +576,17 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -592,6 +643,2259 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Thomas van der Plas" refreshedDate="45947.436345023147" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="125" xr:uid="{905C5164-316C-4F88-9019-109CFCD010F5}">
+  <cacheSource type="worksheet">
+    <worksheetSource ref="A1:N126" sheet="data"/>
+  </cacheSource>
+  <cacheFields count="14">
+    <cacheField name="max vh cols" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="500" maxValue="25000" count="5">
+        <n v="500"/>
+        <n v="2500"/>
+        <n v="5000"/>
+        <n v="10000"/>
+        <n v="25000"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="max cr cols" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="500" maxValue="25000" count="5">
+        <n v="500"/>
+        <n v="2500"/>
+        <n v="5000"/>
+        <n v="10000"/>
+        <n v="25000"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="int vsp value" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="3386.35362065042" maxValue="4033.3404823711398"/>
+    </cacheField>
+    <cacheField name="int csp value" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="11382.166666666601" maxValue="13152.166666666601"/>
+    </cacheField>
+    <cacheField name="int vsp cols" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="501" maxValue="25000"/>
+    </cacheField>
+    <cacheField name="int csp cols" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="2252" maxValue="12551"/>
+    </cacheField>
+    <cacheField name="int vsp selected cols" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="10" maxValue="13"/>
+    </cacheField>
+    <cacheField name="int csp selected cols" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="20" maxValue="22"/>
+    </cacheField>
+    <cacheField name="mipgap" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0" maxValue="5.6032651206887598E-3"/>
+    </cacheField>
+    <cacheField name="mip runtime" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="14.2471809387207" maxValue="600.02484488487198"/>
+    </cacheField>
+    <cacheField name="total runtime" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="210.29535799999999" maxValue="860.55486800000006"/>
+    </cacheField>
+    <cacheField name="total cost" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="15181.400744454741" maxValue="16538.52028731702"/>
+    </cacheField>
+    <cacheField name="mipgaprounded" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0" maxValue="0.6"/>
+    </cacheField>
+    <cacheField name="cg runtime" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="64.688901569687005" maxValue="361.50281644711396"/>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="125">
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="3386.35362065042"/>
+    <n v="12947.666666666601"/>
+    <n v="621"/>
+    <n v="2264"/>
+    <n v="10"/>
+    <n v="22"/>
+    <n v="0"/>
+    <n v="150.29275894164999"/>
+    <n v="224.1110932"/>
+    <n v="16334.02028731702"/>
+    <n v="0"/>
+    <n v="73.818334258350006"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="3386.35362065042"/>
+    <n v="13152.166666666601"/>
+    <n v="605"/>
+    <n v="2262"/>
+    <n v="10"/>
+    <n v="22"/>
+    <n v="0"/>
+    <n v="150.45815992355301"/>
+    <n v="273.10863890000002"/>
+    <n v="16538.52028731702"/>
+    <n v="0"/>
+    <n v="122.650478976447"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="3386.35362065042"/>
+    <n v="12876.166666666601"/>
+    <n v="609"/>
+    <n v="2261"/>
+    <n v="10"/>
+    <n v="22"/>
+    <n v="0"/>
+    <n v="150.324303865432"/>
+    <n v="218.77975420000001"/>
+    <n v="16262.52028731702"/>
+    <n v="0"/>
+    <n v="68.455450334568013"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="3386.35362065042"/>
+    <n v="13080.666666666601"/>
+    <n v="598"/>
+    <n v="2263"/>
+    <n v="10"/>
+    <n v="22"/>
+    <n v="0"/>
+    <n v="150.288661956787"/>
+    <n v="224.93100720000001"/>
+    <n v="16467.02028731702"/>
+    <n v="0"/>
+    <n v="74.642345243213015"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="3386.35362065042"/>
+    <n v="12692.5"/>
+    <n v="589"/>
+    <n v="2261"/>
+    <n v="10"/>
+    <n v="22"/>
+    <n v="3.10342724054365E-9"/>
+    <n v="150.102546930313"/>
+    <n v="214.7914485"/>
+    <n v="16078.85362065042"/>
+    <n v="0"/>
+    <n v="64.688901569687005"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="3386.35362065042"/>
+    <n v="12793.833333333299"/>
+    <n v="584"/>
+    <n v="4259"/>
+    <n v="10"/>
+    <n v="22"/>
+    <n v="6.6670703654706902E-11"/>
+    <n v="151.06893396377501"/>
+    <n v="238.6533264"/>
+    <n v="16180.186953983719"/>
+    <n v="0"/>
+    <n v="87.584392436224988"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="3386.35362065042"/>
+    <n v="12593.416666666601"/>
+    <n v="586"/>
+    <n v="4261"/>
+    <n v="10"/>
+    <n v="22"/>
+    <n v="6.6670907591665698E-11"/>
+    <n v="151.629864931106"/>
+    <n v="248.81114700000001"/>
+    <n v="15979.77028731702"/>
+    <n v="0"/>
+    <n v="97.181282068894006"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="3386.35362065042"/>
+    <n v="12869.666666666601"/>
+    <n v="564"/>
+    <n v="4283"/>
+    <n v="10"/>
+    <n v="22"/>
+    <n v="7.5004805405222496E-11"/>
+    <n v="152.45434594154301"/>
+    <n v="261.58221570000001"/>
+    <n v="16256.02028731702"/>
+    <n v="0"/>
+    <n v="109.127869758457"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="3386.35362065042"/>
+    <n v="12798.166666666601"/>
+    <n v="568"/>
+    <n v="4266"/>
+    <n v="10"/>
+    <n v="22"/>
+    <n v="0"/>
+    <n v="152.05250191688501"/>
+    <n v="264.18489849999997"/>
+    <n v="16184.52028731702"/>
+    <n v="0"/>
+    <n v="112.13239658311497"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="3386.35362065042"/>
+    <n v="12455.5"/>
+    <n v="583"/>
+    <n v="4273"/>
+    <n v="10"/>
+    <n v="21"/>
+    <n v="0"/>
+    <n v="152.64080214500399"/>
+    <n v="263.05649590000002"/>
+    <n v="15841.85362065042"/>
+    <n v="0"/>
+    <n v="110.41569375499603"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="2"/>
+    <n v="3386.35362065042"/>
+    <n v="12423"/>
+    <n v="515"/>
+    <n v="6800"/>
+    <n v="10"/>
+    <n v="21"/>
+    <n v="6.6670937640077094E-11"/>
+    <n v="153.60177302360501"/>
+    <n v="286.04052489999998"/>
+    <n v="15809.35362065042"/>
+    <n v="0"/>
+    <n v="132.43875187639497"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="2"/>
+    <n v="3386.35362065042"/>
+    <n v="12397"/>
+    <n v="526"/>
+    <n v="6847"/>
+    <n v="10"/>
+    <n v="21"/>
+    <n v="0"/>
+    <n v="151.39819812774601"/>
+    <n v="276.05732890000002"/>
+    <n v="15783.35362065042"/>
+    <n v="0"/>
+    <n v="124.659130772254"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="2"/>
+    <n v="3386.35362065042"/>
+    <n v="12412.5"/>
+    <n v="508"/>
+    <n v="7022"/>
+    <n v="10"/>
+    <n v="22"/>
+    <n v="0"/>
+    <n v="152.837403059005"/>
+    <n v="287.98875479999998"/>
+    <n v="15798.85362065042"/>
+    <n v="0"/>
+    <n v="135.15135174099498"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="2"/>
+    <n v="3389.3776478905302"/>
+    <n v="12660"/>
+    <n v="516"/>
+    <n v="6799"/>
+    <n v="10"/>
+    <n v="22"/>
+    <n v="0"/>
+    <n v="151.538107156753"/>
+    <n v="273.55234309999997"/>
+    <n v="16049.377647890531"/>
+    <n v="0"/>
+    <n v="122.01423594324697"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="2"/>
+    <n v="3386.35362065042"/>
+    <n v="12547.916666666601"/>
+    <n v="514"/>
+    <n v="6810"/>
+    <n v="10"/>
+    <n v="22"/>
+    <n v="0"/>
+    <n v="154.59402108192401"/>
+    <n v="292.77570550000002"/>
+    <n v="15934.27028731702"/>
+    <n v="0"/>
+    <n v="138.181684418076"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="3"/>
+    <n v="3386.35362065042"/>
+    <n v="12280"/>
+    <n v="503"/>
+    <n v="10122"/>
+    <n v="10"/>
+    <n v="21"/>
+    <n v="0"/>
+    <n v="151.15314412116999"/>
+    <n v="294.26556149999999"/>
+    <n v="15666.35362065042"/>
+    <n v="0"/>
+    <n v="143.11241737883"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="3"/>
+    <n v="3386.35362065042"/>
+    <n v="12497"/>
+    <n v="514"/>
+    <n v="8947"/>
+    <n v="10"/>
+    <n v="22"/>
+    <n v="7.5004877513395596E-11"/>
+    <n v="153.21035695075901"/>
+    <n v="268.11509790000002"/>
+    <n v="15883.35362065042"/>
+    <n v="0"/>
+    <n v="114.90474094924102"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="3"/>
+    <n v="3602.5259173622799"/>
+    <n v="12150.4999999999"/>
+    <n v="509"/>
+    <n v="10185"/>
+    <n v="11"/>
+    <n v="21"/>
+    <n v="0"/>
+    <n v="153.15297079086301"/>
+    <n v="261.36049000000003"/>
+    <n v="15753.02591736218"/>
+    <n v="0"/>
+    <n v="108.20751920913702"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="3"/>
+    <n v="3386.35362065042"/>
+    <n v="12294.083333333299"/>
+    <n v="510"/>
+    <n v="10761"/>
+    <n v="10"/>
+    <n v="21"/>
+    <n v="0"/>
+    <n v="153.778985977172"/>
+    <n v="278.3901583"/>
+    <n v="15680.436953983719"/>
+    <n v="0"/>
+    <n v="124.611172322828"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="3"/>
+    <n v="3386.35362065042"/>
+    <n v="12270.25"/>
+    <n v="501"/>
+    <n v="11298"/>
+    <n v="10"/>
+    <n v="21"/>
+    <n v="4.7809435065963903E-5"/>
+    <n v="152.724138021469"/>
+    <n v="296.75653560000001"/>
+    <n v="15656.60362065042"/>
+    <n v="0"/>
+    <n v="144.032397578531"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="4"/>
+    <n v="3386.35362065042"/>
+    <n v="12678.416666666601"/>
+    <n v="526"/>
+    <n v="7478"/>
+    <n v="10"/>
+    <n v="22"/>
+    <n v="4.9553087219226997E-11"/>
+    <n v="152.627223014831"/>
+    <n v="261.56896610000001"/>
+    <n v="16064.77028731702"/>
+    <n v="0"/>
+    <n v="108.94174308516901"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="4"/>
+    <n v="3386.35362065042"/>
+    <n v="12313.916666666601"/>
+    <n v="505"/>
+    <n v="11403"/>
+    <n v="10"/>
+    <n v="22"/>
+    <n v="0"/>
+    <n v="164.709098100662"/>
+    <n v="301.89033999999998"/>
+    <n v="15700.27028731702"/>
+    <n v="0"/>
+    <n v="137.18124189933798"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="4"/>
+    <n v="3386.35362065042"/>
+    <n v="12649.75"/>
+    <n v="528"/>
+    <n v="8612"/>
+    <n v="10"/>
+    <n v="22"/>
+    <n v="6.6670824902247303E-11"/>
+    <n v="150.79251098632801"/>
+    <n v="265.12915770000001"/>
+    <n v="16036.10362065042"/>
+    <n v="0"/>
+    <n v="114.336646713672"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="4"/>
+    <n v="3386.35362065042"/>
+    <n v="12385.083333333299"/>
+    <n v="506"/>
+    <n v="12059"/>
+    <n v="10"/>
+    <n v="21"/>
+    <n v="0"/>
+    <n v="156.32571792602499"/>
+    <n v="301.96353640000001"/>
+    <n v="15771.436953983719"/>
+    <n v="0"/>
+    <n v="145.63781847397502"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="4"/>
+    <n v="3386.35362065042"/>
+    <n v="12629.666666666601"/>
+    <n v="528"/>
+    <n v="7556"/>
+    <n v="10"/>
+    <n v="22"/>
+    <n v="5.1114002729924702E-6"/>
+    <n v="151.00240898132299"/>
+    <n v="263.93131770000002"/>
+    <n v="16016.02028731702"/>
+    <n v="0"/>
+    <n v="112.92890871867704"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="3987.8685845645"/>
+    <n v="11759.666666666601"/>
+    <n v="2500"/>
+    <n v="2280"/>
+    <n v="13"/>
+    <n v="20"/>
+    <n v="9.6097298085059099E-11"/>
+    <n v="152.648709058761"/>
+    <n v="297.62439799999999"/>
+    <n v="15747.5352512311"/>
+    <n v="0"/>
+    <n v="144.97568894123899"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="3386.35362065042"/>
+    <n v="12348.2499999999"/>
+    <n v="2500"/>
+    <n v="2264"/>
+    <n v="10"/>
+    <n v="21"/>
+    <n v="0"/>
+    <n v="152.83059406280501"/>
+    <n v="376.69885929999998"/>
+    <n v="15734.603620650319"/>
+    <n v="0"/>
+    <n v="223.86826523719498"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="3607.9027976638599"/>
+    <n v="11970.75"/>
+    <n v="2500"/>
+    <n v="2271"/>
+    <n v="11"/>
+    <n v="21"/>
+    <n v="8.3338530014632099E-11"/>
+    <n v="152.756541967391"/>
+    <n v="340.21641160000001"/>
+    <n v="15578.652797663861"/>
+    <n v="0"/>
+    <n v="187.45986963260901"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="3821.5698349992199"/>
+    <n v="12274.583333333299"/>
+    <n v="2500"/>
+    <n v="2279"/>
+    <n v="12"/>
+    <n v="21"/>
+    <n v="0"/>
+    <n v="151.407190084457"/>
+    <n v="302.91511409999998"/>
+    <n v="16096.153168332519"/>
+    <n v="0"/>
+    <n v="151.50792401554298"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="3615.94356610452"/>
+    <n v="11949.083333333299"/>
+    <n v="2500"/>
+    <n v="2283"/>
+    <n v="11"/>
+    <n v="21"/>
+    <n v="8.3338679493912594E-11"/>
+    <n v="153.984721183776"/>
+    <n v="314.33887229999999"/>
+    <n v="15565.02689943782"/>
+    <n v="0"/>
+    <n v="160.35415111622399"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="3386.35362065042"/>
+    <n v="12503.5"/>
+    <n v="2500"/>
+    <n v="4313"/>
+    <n v="10"/>
+    <n v="22"/>
+    <n v="5.6032651206887598E-3"/>
+    <n v="600.021921157836"/>
+    <n v="750.71244249999995"/>
+    <n v="15889.85362065042"/>
+    <n v="0.6"/>
+    <n v="150.69052134216395"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="3413.0535306368602"/>
+    <n v="12245.666666666601"/>
+    <n v="2500"/>
+    <n v="4297"/>
+    <n v="10"/>
+    <n v="22"/>
+    <n v="8.5719864026558599E-11"/>
+    <n v="154.490487098693"/>
+    <n v="306.34360090000001"/>
+    <n v="15658.720197303461"/>
+    <n v="0"/>
+    <n v="151.85311380130702"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="3592.5290303095198"/>
+    <n v="12274.583333333299"/>
+    <n v="2500"/>
+    <n v="4265"/>
+    <n v="11"/>
+    <n v="21"/>
+    <n v="9.1672327937866902E-11"/>
+    <n v="236.727113008499"/>
+    <n v="410.08244409999998"/>
+    <n v="15867.11236364282"/>
+    <n v="0"/>
+    <n v="173.35533109150097"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="3620.6413293823698"/>
+    <n v="11721.75"/>
+    <n v="2500"/>
+    <n v="4329"/>
+    <n v="11"/>
+    <n v="20"/>
+    <n v="0"/>
+    <n v="155.87937593460001"/>
+    <n v="364.49940609999999"/>
+    <n v="15342.39132938237"/>
+    <n v="0"/>
+    <n v="208.62003016539998"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="3400.4514823900199"/>
+    <n v="12321.166666666601"/>
+    <n v="2500"/>
+    <n v="4355"/>
+    <n v="10"/>
+    <n v="21"/>
+    <n v="5.7146378744208401E-11"/>
+    <n v="153.72561311721799"/>
+    <n v="308.9899388"/>
+    <n v="15721.61814905662"/>
+    <n v="0"/>
+    <n v="155.26432568278202"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="2"/>
+    <n v="3386.35362065042"/>
+    <n v="12472.083333333299"/>
+    <n v="2500"/>
+    <n v="6985"/>
+    <n v="10"/>
+    <n v="22"/>
+    <n v="0"/>
+    <n v="151.858940839767"/>
+    <n v="329.8124396"/>
+    <n v="15858.436953983719"/>
+    <n v="0"/>
+    <n v="177.953498760233"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="2"/>
+    <n v="4031.1921620488802"/>
+    <n v="11916"/>
+    <n v="2500"/>
+    <n v="7035"/>
+    <n v="13"/>
+    <n v="21"/>
+    <n v="8.9773303113427596E-5"/>
+    <n v="152.152626037597"/>
+    <n v="322.17095710000001"/>
+    <n v="15947.192162048879"/>
+    <n v="0"/>
+    <n v="170.01833106240301"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="2"/>
+    <n v="3387.3370674748899"/>
+    <n v="12232.916666666601"/>
+    <n v="2500"/>
+    <n v="6808"/>
+    <n v="10"/>
+    <n v="21"/>
+    <n v="0"/>
+    <n v="153.62941980361899"/>
+    <n v="318.91120690000002"/>
+    <n v="15620.25373414149"/>
+    <n v="0"/>
+    <n v="165.28178709638104"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="2"/>
+    <n v="3386.35362065042"/>
+    <n v="12269.166666666601"/>
+    <n v="2500"/>
+    <n v="6793"/>
+    <n v="10"/>
+    <n v="21"/>
+    <n v="9.5697390794045306E-5"/>
+    <n v="153.334477901458"/>
+    <n v="327.33211060000002"/>
+    <n v="15655.52028731702"/>
+    <n v="0"/>
+    <n v="173.99763269854202"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="2"/>
+    <n v="3386.35362065042"/>
+    <n v="12337.416666666601"/>
+    <n v="2500"/>
+    <n v="6822"/>
+    <n v="10"/>
+    <n v="21"/>
+    <n v="7.5004918078489095E-11"/>
+    <n v="157.370196104049"/>
+    <n v="368.02763850000002"/>
+    <n v="15723.77028731702"/>
+    <n v="0"/>
+    <n v="210.65744239595102"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="3"/>
+    <n v="3592.5136264218499"/>
+    <n v="12082"/>
+    <n v="2500"/>
+    <n v="11405"/>
+    <n v="11"/>
+    <n v="20"/>
+    <n v="0"/>
+    <n v="155.87120604514999"/>
+    <n v="382.9891849"/>
+    <n v="15674.513626421849"/>
+    <n v="0"/>
+    <n v="227.11797885485001"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="3"/>
+    <n v="3387.3370674748899"/>
+    <n v="12196.083333333299"/>
+    <n v="2500"/>
+    <n v="9626"/>
+    <n v="10"/>
+    <n v="21"/>
+    <n v="3.0656203578025501E-11"/>
+    <n v="152.03466820716801"/>
+    <n v="319.3882873"/>
+    <n v="15583.420400808189"/>
+    <n v="0"/>
+    <n v="167.35361909283199"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="3"/>
+    <n v="3386.35362065042"/>
+    <n v="12347.166666666601"/>
+    <n v="2500"/>
+    <n v="9577"/>
+    <n v="10"/>
+    <n v="21"/>
+    <n v="3.71013280170302E-5"/>
+    <n v="154.89680099487299"/>
+    <n v="339.3704821"/>
+    <n v="15733.52028731702"/>
+    <n v="0"/>
+    <n v="184.47368110512701"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="3"/>
+    <n v="3799.18411663795"/>
+    <n v="11506.166666666601"/>
+    <n v="2500"/>
+    <n v="9822"/>
+    <n v="12"/>
+    <n v="20"/>
+    <n v="6.9570568317956998E-5"/>
+    <n v="151.335283041"/>
+    <n v="338.4282814"/>
+    <n v="15305.350783304551"/>
+    <n v="0"/>
+    <n v="187.09299835900001"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="3"/>
+    <n v="3387.1628544334199"/>
+    <n v="12223.666666666601"/>
+    <n v="2500"/>
+    <n v="11855"/>
+    <n v="10"/>
+    <n v="21"/>
+    <n v="1.11045853555749E-5"/>
+    <n v="156.48888611793501"/>
+    <n v="381.58891999999997"/>
+    <n v="15610.82952110002"/>
+    <n v="0"/>
+    <n v="225.10003388206496"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="4"/>
+    <n v="3387.3370674748899"/>
+    <n v="12191.75"/>
+    <n v="2500"/>
+    <n v="9137"/>
+    <n v="10"/>
+    <n v="21"/>
+    <n v="5.0003307330472999E-11"/>
+    <n v="152.90496587753199"/>
+    <n v="347.29207919999999"/>
+    <n v="15579.087067474889"/>
+    <n v="0"/>
+    <n v="194.387113322468"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="4"/>
+    <n v="3386.35362065042"/>
+    <n v="12386.166666666601"/>
+    <n v="2500"/>
+    <n v="12270"/>
+    <n v="10"/>
+    <n v="21"/>
+    <n v="2.46565166020717E-4"/>
+    <n v="600.02484488487198"/>
+    <n v="860.55486800000006"/>
+    <n v="15772.52028731702"/>
+    <n v="0"/>
+    <n v="260.53002311512807"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="4"/>
+    <n v="3612.4927165577701"/>
+    <n v="11754.25"/>
+    <n v="2500"/>
+    <n v="10304"/>
+    <n v="11"/>
+    <n v="20"/>
+    <n v="0"/>
+    <n v="153.39373087882899"/>
+    <n v="375.84676530000002"/>
+    <n v="15366.74271655777"/>
+    <n v="0"/>
+    <n v="222.45303442117103"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="4"/>
+    <n v="3387.3370674748899"/>
+    <n v="12187.416666666601"/>
+    <n v="2500"/>
+    <n v="12551"/>
+    <n v="10"/>
+    <n v="21"/>
+    <n v="0"/>
+    <n v="158.846669912338"/>
+    <n v="387.89462630000003"/>
+    <n v="15574.75373414149"/>
+    <n v="0"/>
+    <n v="229.04795638766203"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="4"/>
+    <n v="3592.7391568910002"/>
+    <n v="11801.916666666601"/>
+    <n v="2500"/>
+    <n v="7848"/>
+    <n v="11"/>
+    <n v="20"/>
+    <n v="3.7397109525657097E-11"/>
+    <n v="151.185220956802"/>
+    <n v="327.93518110000002"/>
+    <n v="15394.655823557601"/>
+    <n v="0"/>
+    <n v="176.74996014319802"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="0"/>
+    <n v="3784.76504368428"/>
+    <n v="11807.333333333299"/>
+    <n v="5000"/>
+    <n v="2269"/>
+    <n v="12"/>
+    <n v="20"/>
+    <n v="0"/>
+    <n v="153.76980304718001"/>
+    <n v="315.54654799999997"/>
+    <n v="15592.098377017579"/>
+    <n v="0"/>
+    <n v="161.77674495281997"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="0"/>
+    <n v="3593.98638334613"/>
+    <n v="12017.333333333299"/>
+    <n v="5000"/>
+    <n v="2281"/>
+    <n v="11"/>
+    <n v="21"/>
+    <n v="0"/>
+    <n v="152.28408408164901"/>
+    <n v="316.99185080000001"/>
+    <n v="15611.319716679429"/>
+    <n v="0"/>
+    <n v="164.707766718351"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="0"/>
+    <n v="3800.7691498377399"/>
+    <n v="11730.416666666601"/>
+    <n v="5000"/>
+    <n v="2270"/>
+    <n v="12"/>
+    <n v="20"/>
+    <n v="3.1495867168649002E-11"/>
+    <n v="152.73037600517199"/>
+    <n v="306.97853570000001"/>
+    <n v="15531.185816504341"/>
+    <n v="0"/>
+    <n v="154.24815969482802"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="0"/>
+    <n v="3592.3517200472102"/>
+    <n v="12107.75"/>
+    <n v="5000"/>
+    <n v="2270"/>
+    <n v="11"/>
+    <n v="21"/>
+    <n v="5.71466049794464E-11"/>
+    <n v="150.976240873336"/>
+    <n v="327.9827727"/>
+    <n v="15700.101720047211"/>
+    <n v="0"/>
+    <n v="177.006531826664"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="0"/>
+    <n v="3393.5808435819299"/>
+    <n v="12248.583333333299"/>
+    <n v="5000"/>
+    <n v="2265"/>
+    <n v="10"/>
+    <n v="21"/>
+    <n v="0"/>
+    <n v="151.85396099090499"/>
+    <n v="326.36334010000002"/>
+    <n v="15642.16417691523"/>
+    <n v="0"/>
+    <n v="174.50937910909502"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="1"/>
+    <n v="3615.9270336227701"/>
+    <n v="12172.75"/>
+    <n v="5000"/>
+    <n v="4272"/>
+    <n v="11"/>
+    <n v="21"/>
+    <n v="0"/>
+    <n v="153.93040704727099"/>
+    <n v="332.07702360000002"/>
+    <n v="15788.677033622771"/>
+    <n v="0"/>
+    <n v="178.14661655272903"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="1"/>
+    <n v="3387.3370674748899"/>
+    <n v="12232.916666666601"/>
+    <n v="5000"/>
+    <n v="4295"/>
+    <n v="10"/>
+    <n v="21"/>
+    <n v="3.5812787158150002E-11"/>
+    <n v="155.05437302589399"/>
+    <n v="322.61682059999998"/>
+    <n v="15620.25373414149"/>
+    <n v="0"/>
+    <n v="167.56244757410599"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="1"/>
+    <n v="3387.1628544334199"/>
+    <n v="12232.333333333299"/>
+    <n v="5000"/>
+    <n v="4270"/>
+    <n v="10"/>
+    <n v="21"/>
+    <n v="0"/>
+    <n v="152.951826810836"/>
+    <n v="365.23276060000001"/>
+    <n v="15619.496187766719"/>
+    <n v="0"/>
+    <n v="212.28093378916401"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="1"/>
+    <n v="3594.1477237007998"/>
+    <n v="12212.333333333299"/>
+    <n v="5000"/>
+    <n v="4255"/>
+    <n v="11"/>
+    <n v="21"/>
+    <n v="7.7782742777873198E-11"/>
+    <n v="159.34286189079199"/>
+    <n v="342.90245299999998"/>
+    <n v="15806.4810570341"/>
+    <n v="0"/>
+    <n v="183.55959110920799"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="1"/>
+    <n v="3386.35362065042"/>
+    <n v="12239.916666666601"/>
+    <n v="5000"/>
+    <n v="4291"/>
+    <n v="10"/>
+    <n v="21"/>
+    <n v="8.3338691526490696E-11"/>
+    <n v="379.53971385955799"/>
+    <n v="558.68851289999998"/>
+    <n v="15626.27028731702"/>
+    <n v="0"/>
+    <n v="179.14879904044199"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="2"/>
+    <n v="3615.9270336227701"/>
+    <n v="12165.166666666601"/>
+    <n v="5000"/>
+    <n v="6787"/>
+    <n v="11"/>
+    <n v="21"/>
+    <n v="0"/>
+    <n v="158.25165104865999"/>
+    <n v="354.50637180000001"/>
+    <n v="15781.09370028937"/>
+    <n v="0"/>
+    <n v="196.25472075134002"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="2"/>
+    <n v="3387.3370674748899"/>
+    <n v="12176.583333333299"/>
+    <n v="5000"/>
+    <n v="6828"/>
+    <n v="10"/>
+    <n v="21"/>
+    <n v="5.8751699231353598E-5"/>
+    <n v="184.865798950195"/>
+    <n v="419.22567479999998"/>
+    <n v="15563.920400808189"/>
+    <n v="0"/>
+    <n v="234.35987584980498"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="2"/>
+    <n v="3386.35362065042"/>
+    <n v="12455.833333333299"/>
+    <n v="5000"/>
+    <n v="6788"/>
+    <n v="10"/>
+    <n v="22"/>
+    <n v="0"/>
+    <n v="160.430917978286"/>
+    <n v="355.00074890000002"/>
+    <n v="15842.186953983719"/>
+    <n v="0"/>
+    <n v="194.56983092171401"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="2"/>
+    <n v="3592.3517200472102"/>
+    <n v="12104.5"/>
+    <n v="5000"/>
+    <n v="6796"/>
+    <n v="11"/>
+    <n v="21"/>
+    <n v="0"/>
+    <n v="154.45754003524701"/>
+    <n v="382.98827640000002"/>
+    <n v="15696.851720047211"/>
+    <n v="0"/>
+    <n v="228.53073636475301"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="2"/>
+    <n v="3600.2621651445402"/>
+    <n v="12156"/>
+    <n v="5000"/>
+    <n v="6839"/>
+    <n v="11"/>
+    <n v="21"/>
+    <n v="0"/>
+    <n v="154.903408050537"/>
+    <n v="346.70392909999998"/>
+    <n v="15756.262165144541"/>
+    <n v="0"/>
+    <n v="191.80052104946299"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="3"/>
+    <n v="3590.5920844602001"/>
+    <n v="12233.416666666601"/>
+    <n v="5000"/>
+    <n v="8867"/>
+    <n v="11"/>
+    <n v="21"/>
+    <n v="6.66709250432404E-11"/>
+    <n v="157.31972789764399"/>
+    <n v="377.28903309999998"/>
+    <n v="15824.008751126801"/>
+    <n v="0"/>
+    <n v="219.969305202356"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="3"/>
+    <n v="3610.6098161025402"/>
+    <n v="12131.583333333299"/>
+    <n v="5000"/>
+    <n v="8523"/>
+    <n v="11"/>
+    <n v="21"/>
+    <n v="0"/>
+    <n v="157.62105703353799"/>
+    <n v="337.88322849999997"/>
+    <n v="15742.19314943584"/>
+    <n v="0"/>
+    <n v="180.26217146646198"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="3"/>
+    <n v="3387.3370674748899"/>
+    <n v="12112.666666666601"/>
+    <n v="5000"/>
+    <n v="9607"/>
+    <n v="10"/>
+    <n v="21"/>
+    <n v="0"/>
+    <n v="157.53352189064"/>
+    <n v="377.63688109999998"/>
+    <n v="15500.00373414149"/>
+    <n v="0"/>
+    <n v="220.10335920935998"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="3"/>
+    <n v="3626.0233736249102"/>
+    <n v="12119.666666666601"/>
+    <n v="5000"/>
+    <n v="8567"/>
+    <n v="11"/>
+    <n v="21"/>
+    <n v="0"/>
+    <n v="152.28776383399901"/>
+    <n v="313.55102190000002"/>
+    <n v="15745.690040291511"/>
+    <n v="0"/>
+    <n v="161.26325806600101"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="3"/>
+    <n v="3386.35362065042"/>
+    <n v="12351.5"/>
+    <n v="5000"/>
+    <n v="9199"/>
+    <n v="10"/>
+    <n v="21"/>
+    <n v="4.0017564447792199E-11"/>
+    <n v="157.696935176849"/>
+    <n v="351.79917330000001"/>
+    <n v="15737.85362065042"/>
+    <n v="0"/>
+    <n v="194.10223812315101"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="4"/>
+    <n v="3387.3370674748899"/>
+    <n v="12143"/>
+    <n v="5000"/>
+    <n v="9185"/>
+    <n v="10"/>
+    <n v="21"/>
+    <n v="0"/>
+    <n v="154.36549997329701"/>
+    <n v="376.4345088"/>
+    <n v="15530.337067474889"/>
+    <n v="0"/>
+    <n v="222.069008826703"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="4"/>
+    <n v="3386.35362065042"/>
+    <n v="12245.333333333299"/>
+    <n v="5000"/>
+    <n v="12326"/>
+    <n v="10"/>
+    <n v="21"/>
+    <n v="0"/>
+    <n v="161.60334801673801"/>
+    <n v="452.70535489999997"/>
+    <n v="15631.686953983719"/>
+    <n v="0"/>
+    <n v="291.10200688326199"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="4"/>
+    <n v="3386.35362065042"/>
+    <n v="12363.416666666601"/>
+    <n v="5000"/>
+    <n v="8891"/>
+    <n v="10"/>
+    <n v="21"/>
+    <n v="0"/>
+    <n v="160.81090712547299"/>
+    <n v="344.78019180000001"/>
+    <n v="15749.77028731702"/>
+    <n v="0"/>
+    <n v="183.96928467452702"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="4"/>
+    <n v="3391.2480457439401"/>
+    <n v="12282.166666666601"/>
+    <n v="5000"/>
+    <n v="11506"/>
+    <n v="10"/>
+    <n v="21"/>
+    <n v="0"/>
+    <n v="154.04878497123701"/>
+    <n v="379.9204479"/>
+    <n v="15673.41471241054"/>
+    <n v="0"/>
+    <n v="225.87166292876299"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="4"/>
+    <n v="3400.4514823900199"/>
+    <n v="12320.083333333299"/>
+    <n v="5000"/>
+    <n v="7790"/>
+    <n v="10"/>
+    <n v="21"/>
+    <n v="8.1820469238871906E-5"/>
+    <n v="153.72387409210199"/>
+    <n v="354.99204809999998"/>
+    <n v="15720.53481572332"/>
+    <n v="0"/>
+    <n v="201.26817400789798"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="0"/>
+    <n v="3593.11091520126"/>
+    <n v="11781.333333333299"/>
+    <n v="10000"/>
+    <n v="2268"/>
+    <n v="11"/>
+    <n v="20"/>
+    <n v="2.1758268051732201E-11"/>
+    <n v="151.681985855102"/>
+    <n v="332.88872629999997"/>
+    <n v="15374.444248534559"/>
+    <n v="0"/>
+    <n v="181.20674044489797"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="0"/>
+    <n v="3593.1830199647102"/>
+    <n v="12361.2499999999"/>
+    <n v="10000"/>
+    <n v="2254"/>
+    <n v="11"/>
+    <n v="21"/>
+    <n v="0"/>
+    <n v="157.84634685516301"/>
+    <n v="349.37829470000003"/>
+    <n v="15954.43301996461"/>
+    <n v="0"/>
+    <n v="191.53194784483702"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="0"/>
+    <n v="3615.7334021229299"/>
+    <n v="12088.7499999999"/>
+    <n v="10000"/>
+    <n v="2261"/>
+    <n v="11"/>
+    <n v="21"/>
+    <n v="4.2067588765362801E-11"/>
+    <n v="152.38149380683899"/>
+    <n v="353.9186828"/>
+    <n v="15704.483402122831"/>
+    <n v="0"/>
+    <n v="201.53718899316101"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="0"/>
+    <n v="3386.35362065042"/>
+    <n v="12414.333333333299"/>
+    <n v="10000"/>
+    <n v="2263"/>
+    <n v="10"/>
+    <n v="21"/>
+    <n v="0"/>
+    <n v="153.07563495635901"/>
+    <n v="348.28504229999999"/>
+    <n v="15800.686953983719"/>
+    <n v="0"/>
+    <n v="195.20940734364098"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="0"/>
+    <n v="3602.29163774075"/>
+    <n v="12075.25"/>
+    <n v="10000"/>
+    <n v="2264"/>
+    <n v="11"/>
+    <n v="21"/>
+    <n v="0"/>
+    <n v="156.14721989631599"/>
+    <n v="363.13730550000002"/>
+    <n v="15677.541637740749"/>
+    <n v="0"/>
+    <n v="206.99008560368404"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="1"/>
+    <n v="3598.0563656596901"/>
+    <n v="11979.416666666601"/>
+    <n v="10000"/>
+    <n v="4263"/>
+    <n v="11"/>
+    <n v="21"/>
+    <n v="7.5004856720994996E-11"/>
+    <n v="152.730926990509"/>
+    <n v="330.40220849999997"/>
+    <n v="15577.47303232629"/>
+    <n v="0"/>
+    <n v="177.67128150949097"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="1"/>
+    <n v="3794.3014430048302"/>
+    <n v="11668.166666666601"/>
+    <n v="10000"/>
+    <n v="4262"/>
+    <n v="12"/>
+    <n v="20"/>
+    <n v="0"/>
+    <n v="159.04111289977999"/>
+    <n v="391.06612990000002"/>
+    <n v="15462.46810967143"/>
+    <n v="0"/>
+    <n v="232.02501700022003"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="1"/>
+    <n v="3590.5920844602001"/>
+    <n v="12029.25"/>
+    <n v="10000"/>
+    <n v="4263"/>
+    <n v="11"/>
+    <n v="21"/>
+    <n v="5.5558930206286601E-11"/>
+    <n v="154.71005010604799"/>
+    <n v="361.93231079999998"/>
+    <n v="15619.842084460201"/>
+    <n v="0"/>
+    <n v="207.22226069395199"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="1"/>
+    <n v="4000.3911932522801"/>
+    <n v="11612.333333333299"/>
+    <n v="10000"/>
+    <n v="4260"/>
+    <n v="13"/>
+    <n v="20"/>
+    <n v="0"/>
+    <n v="14.2471809387207"/>
+    <n v="210.29535799999999"/>
+    <n v="15612.72452658558"/>
+    <n v="0"/>
+    <n v="196.04817706127929"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="1"/>
+    <n v="3387.3370674748899"/>
+    <n v="12192.833333333299"/>
+    <n v="10000"/>
+    <n v="4258"/>
+    <n v="10"/>
+    <n v="21"/>
+    <n v="6.6974749204547701E-10"/>
+    <n v="152.201612949371"/>
+    <n v="357.97998180000002"/>
+    <n v="15580.170400808189"/>
+    <n v="0"/>
+    <n v="205.77836885062902"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="2"/>
+    <n v="3388.6848911944398"/>
+    <n v="12281.083333333299"/>
+    <n v="10000"/>
+    <n v="6763"/>
+    <n v="10"/>
+    <n v="21"/>
+    <n v="7.4432014885357901E-5"/>
+    <n v="152.366461992263"/>
+    <n v="358.89893530000001"/>
+    <n v="15669.768224527739"/>
+    <n v="0"/>
+    <n v="206.53247330773701"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="2"/>
+    <n v="3609.2451761339598"/>
+    <n v="11806.083333333299"/>
+    <n v="10000"/>
+    <n v="6755"/>
+    <n v="11"/>
+    <n v="21"/>
+    <n v="6.0003781639538598E-11"/>
+    <n v="156.56078195571899"/>
+    <n v="448.7778667"/>
+    <n v="15415.328509467259"/>
+    <n v="0"/>
+    <n v="292.21708474428101"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="2"/>
+    <n v="3386.35362065042"/>
+    <n v="12464.4999999999"/>
+    <n v="10000"/>
+    <n v="6755"/>
+    <n v="10"/>
+    <n v="22"/>
+    <n v="2.8705324013027699E-11"/>
+    <n v="159.838773965835"/>
+    <n v="391.4734426"/>
+    <n v="15850.853620650319"/>
+    <n v="0"/>
+    <n v="231.634668634165"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="2"/>
+    <n v="3592.1152903719199"/>
+    <n v="12213.916666666601"/>
+    <n v="10000"/>
+    <n v="6756"/>
+    <n v="11"/>
+    <n v="21"/>
+    <n v="0"/>
+    <n v="159.58014798164299"/>
+    <n v="366.54954629999997"/>
+    <n v="15806.03195703852"/>
+    <n v="0"/>
+    <n v="206.96939831835698"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="2"/>
+    <n v="3615.32649777905"/>
+    <n v="12126.666666666601"/>
+    <n v="10000"/>
+    <n v="6763"/>
+    <n v="11"/>
+    <n v="21"/>
+    <n v="0"/>
+    <n v="152.15050005912701"/>
+    <n v="385.67747850000001"/>
+    <n v="15741.99316444565"/>
+    <n v="0"/>
+    <n v="233.52697844087299"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="3"/>
+    <n v="3590.5920844602001"/>
+    <n v="12119.166666666601"/>
+    <n v="10000"/>
+    <n v="7274"/>
+    <n v="11"/>
+    <n v="21"/>
+    <n v="6.83605588491349E-11"/>
+    <n v="152.778592824935"/>
+    <n v="359.62443159999998"/>
+    <n v="15709.758751126801"/>
+    <n v="0"/>
+    <n v="206.84583877506498"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="3"/>
+    <n v="3592.9133699324698"/>
+    <n v="12043.333333333299"/>
+    <n v="10000"/>
+    <n v="7686"/>
+    <n v="11"/>
+    <n v="21"/>
+    <n v="8.8894441702640804E-11"/>
+    <n v="165.66205191612201"/>
+    <n v="381.67740209999999"/>
+    <n v="15636.24670326577"/>
+    <n v="0"/>
+    <n v="216.01535018387798"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="3"/>
+    <n v="3387.3370674748899"/>
+    <n v="12382.416666666601"/>
+    <n v="10000"/>
+    <n v="11758"/>
+    <n v="10"/>
+    <n v="21"/>
+    <n v="8.5719814744912497E-11"/>
+    <n v="309.485315084457"/>
+    <n v="625.43838319999998"/>
+    <n v="15769.75373414149"/>
+    <n v="0"/>
+    <n v="315.95306811554298"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="3"/>
+    <n v="3614.7258205857402"/>
+    <n v="12089.916666666601"/>
+    <n v="10000"/>
+    <n v="10467"/>
+    <n v="11"/>
+    <n v="21"/>
+    <n v="6.6670813905337198E-11"/>
+    <n v="192.06199312210001"/>
+    <n v="511.00309979999997"/>
+    <n v="15704.64248725234"/>
+    <n v="0"/>
+    <n v="318.94110667789994"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="3"/>
+    <n v="3387.3370674748899"/>
+    <n v="12179.833333333299"/>
+    <n v="10000"/>
+    <n v="9540"/>
+    <n v="10"/>
+    <n v="21"/>
+    <n v="0"/>
+    <n v="159.55812597274701"/>
+    <n v="428.82361220000001"/>
+    <n v="15567.170400808189"/>
+    <n v="0"/>
+    <n v="269.26548622725301"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="4"/>
+    <n v="3386.35362065042"/>
+    <n v="12673.583333333299"/>
+    <n v="10000"/>
+    <n v="8085"/>
+    <n v="10"/>
+    <n v="22"/>
+    <n v="0"/>
+    <n v="157.87171006202601"/>
+    <n v="357.69083239999998"/>
+    <n v="16059.936953983719"/>
+    <n v="0"/>
+    <n v="199.81912233797397"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="4"/>
+    <n v="3614.8049461281698"/>
+    <n v="11743.75"/>
+    <n v="10000"/>
+    <n v="9608"/>
+    <n v="11"/>
+    <n v="21"/>
+    <n v="0"/>
+    <n v="157.491367101669"/>
+    <n v="466.36988989999998"/>
+    <n v="15358.55494612817"/>
+    <n v="0"/>
+    <n v="308.87852279833101"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="4"/>
+    <n v="3386.35362065042"/>
+    <n v="12636.75"/>
+    <n v="10000"/>
+    <n v="8638"/>
+    <n v="10"/>
+    <n v="22"/>
+    <n v="4.38854629166443E-11"/>
+    <n v="160.88608098029999"/>
+    <n v="371.77254340000002"/>
+    <n v="16023.10362065042"/>
+    <n v="0"/>
+    <n v="210.88646241970002"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="4"/>
+    <n v="3791.7314600356499"/>
+    <n v="11677.333333333299"/>
+    <n v="10000"/>
+    <n v="9574"/>
+    <n v="12"/>
+    <n v="20"/>
+    <n v="0"/>
+    <n v="166.375211954116"/>
+    <n v="458.09620869999998"/>
+    <n v="15469.064793368949"/>
+    <n v="0"/>
+    <n v="291.72099674588401"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="4"/>
+    <n v="3794.3014430048302"/>
+    <n v="11635.666666666601"/>
+    <n v="10000"/>
+    <n v="12218"/>
+    <n v="12"/>
+    <n v="20"/>
+    <n v="0"/>
+    <n v="177.62279605865399"/>
+    <n v="494.406068"/>
+    <n v="15429.96810967143"/>
+    <n v="0"/>
+    <n v="316.78327194134602"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="0"/>
+    <n v="3801.4054788674298"/>
+    <n v="12168.416666666601"/>
+    <n v="25000"/>
+    <n v="2261"/>
+    <n v="12"/>
+    <n v="21"/>
+    <n v="6.25038960568026E-11"/>
+    <n v="243.10860300063999"/>
+    <n v="524.30483349999997"/>
+    <n v="15969.82214553403"/>
+    <n v="0"/>
+    <n v="281.19623049936001"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="0"/>
+    <n v="3796.8273353218201"/>
+    <n v="12003.25"/>
+    <n v="25000"/>
+    <n v="2252"/>
+    <n v="12"/>
+    <n v="21"/>
+    <n v="0"/>
+    <n v="154.83353710174501"/>
+    <n v="419.40542900000003"/>
+    <n v="15800.077335321821"/>
+    <n v="0"/>
+    <n v="264.57189189825499"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="0"/>
+    <n v="4033.3404823711398"/>
+    <n v="12169.833333333299"/>
+    <n v="25000"/>
+    <n v="2255"/>
+    <n v="13"/>
+    <n v="22"/>
+    <n v="0"/>
+    <n v="168.70417404174799"/>
+    <n v="437.44816489999999"/>
+    <n v="16203.173815704438"/>
+    <n v="0"/>
+    <n v="268.743990858252"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="0"/>
+    <n v="3593.4970732463198"/>
+    <n v="12162.4999999999"/>
+    <n v="25000"/>
+    <n v="2264"/>
+    <n v="11"/>
+    <n v="21"/>
+    <n v="2.4237151791046699E-11"/>
+    <n v="153.464437007904"/>
+    <n v="453.36251429999999"/>
+    <n v="15755.997073246221"/>
+    <n v="0"/>
+    <n v="299.89807729209599"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="0"/>
+    <n v="3592.5136264218499"/>
+    <n v="12280"/>
+    <n v="25000"/>
+    <n v="2262"/>
+    <n v="11"/>
+    <n v="21"/>
+    <n v="8.8894509764914606E-11"/>
+    <n v="152.486179113388"/>
+    <n v="401.75437210000001"/>
+    <n v="15872.513626421849"/>
+    <n v="0"/>
+    <n v="249.26819298661201"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="1"/>
+    <n v="3592.5136264218499"/>
+    <n v="12221.5"/>
+    <n v="25000"/>
+    <n v="4257"/>
+    <n v="11"/>
+    <n v="21"/>
+    <n v="7.5005013758790203E-11"/>
+    <n v="154.601524114608"/>
+    <n v="446.08771130000002"/>
+    <n v="15814.013626421849"/>
+    <n v="0"/>
+    <n v="291.48618718539205"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="1"/>
+    <n v="3386.35362065042"/>
+    <n v="12359.083333333299"/>
+    <n v="25000"/>
+    <n v="4262"/>
+    <n v="10"/>
+    <n v="21"/>
+    <n v="0"/>
+    <n v="157.14554619789101"/>
+    <n v="453.2531788"/>
+    <n v="15745.436953983719"/>
+    <n v="0"/>
+    <n v="296.10763260210899"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="1"/>
+    <n v="3593.1830199647102"/>
+    <n v="12362.333333333299"/>
+    <n v="25000"/>
+    <n v="4256"/>
+    <n v="11"/>
+    <n v="21"/>
+    <n v="0"/>
+    <n v="158.985734939575"/>
+    <n v="448.94781180000001"/>
+    <n v="15955.51635329801"/>
+    <n v="0"/>
+    <n v="289.96207686042499"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="1"/>
+    <n v="3588.15738589797"/>
+    <n v="12181.916666666601"/>
+    <n v="25000"/>
+    <n v="4258"/>
+    <n v="11"/>
+    <n v="21"/>
+    <n v="0"/>
+    <n v="158.30528783798201"/>
+    <n v="473.93326880000001"/>
+    <n v="15770.074052564571"/>
+    <n v="0"/>
+    <n v="315.627980962018"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="1"/>
+    <n v="3604.5455517100499"/>
+    <n v="12547.916666666601"/>
+    <n v="25000"/>
+    <n v="4257"/>
+    <n v="11"/>
+    <n v="22"/>
+    <n v="4.9648144090935803E-11"/>
+    <n v="153.76443815231301"/>
+    <n v="453.37222730000002"/>
+    <n v="16152.462218376651"/>
+    <n v="0"/>
+    <n v="299.60778914768701"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="2"/>
+    <n v="3386.35362065042"/>
+    <n v="12504.583333333299"/>
+    <n v="25000"/>
+    <n v="6755"/>
+    <n v="10"/>
+    <n v="22"/>
+    <n v="5.51539196102066E-5"/>
+    <n v="159.32736897468499"/>
+    <n v="464.39600799999999"/>
+    <n v="15890.936953983719"/>
+    <n v="0"/>
+    <n v="305.06863902531501"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="2"/>
+    <n v="3799.23407778814"/>
+    <n v="11382.166666666601"/>
+    <n v="25000"/>
+    <n v="6756"/>
+    <n v="12"/>
+    <n v="20"/>
+    <n v="0"/>
+    <n v="54.825825929641702"/>
+    <n v="398.15220160000001"/>
+    <n v="15181.400744454741"/>
+    <n v="0"/>
+    <n v="343.32637567035829"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="2"/>
+    <n v="3593.0029365216701"/>
+    <n v="12373.166666666601"/>
+    <n v="25000"/>
+    <n v="6752"/>
+    <n v="11"/>
+    <n v="21"/>
+    <n v="0"/>
+    <n v="156.31391096115101"/>
+    <n v="480.40758749999998"/>
+    <n v="15966.169603188271"/>
+    <n v="0"/>
+    <n v="324.09367653884897"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="2"/>
+    <n v="3803.3119373771101"/>
+    <n v="12049.583333333299"/>
+    <n v="25000"/>
+    <n v="6756"/>
+    <n v="12"/>
+    <n v="22"/>
+    <n v="0"/>
+    <n v="156.610189914703"/>
+    <n v="475.38778000000002"/>
+    <n v="15852.895270710409"/>
+    <n v="0"/>
+    <n v="318.77759008529699"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="2"/>
+    <n v="3592.5136264218499"/>
+    <n v="12211.75"/>
+    <n v="25000"/>
+    <n v="6760"/>
+    <n v="11"/>
+    <n v="21"/>
+    <n v="0"/>
+    <n v="166.05691099166799"/>
+    <n v="526.89246869999999"/>
+    <n v="15804.263626421849"/>
+    <n v="0"/>
+    <n v="360.83555770833198"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="3"/>
+    <n v="3592.5136264218499"/>
+    <n v="12229.083333333299"/>
+    <n v="25000"/>
+    <n v="6664"/>
+    <n v="11"/>
+    <n v="21"/>
+    <n v="0"/>
+    <n v="158.04381608963001"/>
+    <n v="437.8340422"/>
+    <n v="15821.596959755148"/>
+    <n v="0"/>
+    <n v="279.79022611036999"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="3"/>
+    <n v="3809.7777472380599"/>
+    <n v="12031.916666666601"/>
+    <n v="25000"/>
+    <n v="6525"/>
+    <n v="12"/>
+    <n v="21"/>
+    <n v="0"/>
+    <n v="169.359767198562"/>
+    <n v="480.2650107"/>
+    <n v="15841.694413904661"/>
+    <n v="0"/>
+    <n v="310.90524350143801"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="3"/>
+    <n v="3587.3481521149702"/>
+    <n v="12250"/>
+    <n v="25000"/>
+    <n v="7922"/>
+    <n v="11"/>
+    <n v="22"/>
+    <n v="6.6670812825837999E-11"/>
+    <n v="167.745899200439"/>
+    <n v="489.5740313"/>
+    <n v="15837.34815211497"/>
+    <n v="0"/>
+    <n v="321.828132099561"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="3"/>
+    <n v="3598.0563656596901"/>
+    <n v="12011.916666666601"/>
+    <n v="25000"/>
+    <n v="10142"/>
+    <n v="11"/>
+    <n v="21"/>
+    <n v="6.6671044731660002E-11"/>
+    <n v="250.114119052886"/>
+    <n v="611.61693549999995"/>
+    <n v="15609.97303232629"/>
+    <n v="0"/>
+    <n v="361.50281644711396"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="3"/>
+    <n v="3602.39392869006"/>
+    <n v="12304.416666666601"/>
+    <n v="25000"/>
+    <n v="8794"/>
+    <n v="11"/>
+    <n v="21"/>
+    <n v="3.56050266222947E-11"/>
+    <n v="159.57969689369199"/>
+    <n v="459.99220530000002"/>
+    <n v="15906.810595356661"/>
+    <n v="0"/>
+    <n v="300.41250840630801"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="4"/>
+    <n v="3588.33159893944"/>
+    <n v="12090.25"/>
+    <n v="25000"/>
+    <n v="8189"/>
+    <n v="11"/>
+    <n v="22"/>
+    <n v="1.9790146687587901E-11"/>
+    <n v="155.09370183944699"/>
+    <n v="470.02482759999998"/>
+    <n v="15678.58159893944"/>
+    <n v="0"/>
+    <n v="314.93112576055296"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="4"/>
+    <n v="3605.9320477531401"/>
+    <n v="12106.166666666601"/>
+    <n v="25000"/>
+    <n v="7686"/>
+    <n v="11"/>
+    <n v="21"/>
+    <n v="9.5358367218843296E-5"/>
+    <n v="157.57272195816"/>
+    <n v="462.2331226"/>
+    <n v="15712.098714419741"/>
+    <n v="0"/>
+    <n v="304.66040064184"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="4"/>
+    <n v="3791.2429463891799"/>
+    <n v="12183.583333333299"/>
+    <n v="25000"/>
+    <n v="8810"/>
+    <n v="12"/>
+    <n v="21"/>
+    <n v="0"/>
+    <n v="161.704163789749"/>
+    <n v="457.37592030000002"/>
+    <n v="15974.82627972248"/>
+    <n v="0"/>
+    <n v="295.67175651025104"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="4"/>
+    <n v="3601.6630957462298"/>
+    <n v="12165.166666666601"/>
+    <n v="25000"/>
+    <n v="9192"/>
+    <n v="11"/>
+    <n v="21"/>
+    <n v="0"/>
+    <n v="157.68458390235901"/>
+    <n v="494.92911299999997"/>
+    <n v="15766.82976241283"/>
+    <n v="0"/>
+    <n v="337.24452909764096"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="4"/>
+    <n v="3632.7101053329102"/>
+    <n v="12025.416666666601"/>
+    <n v="25000"/>
+    <n v="7976"/>
+    <n v="11"/>
+    <n v="21"/>
+    <n v="6.0003746810116798E-11"/>
+    <n v="161.48101496696401"/>
+    <n v="475.53772739999999"/>
+    <n v="15658.12677199951"/>
+    <n v="0"/>
+    <n v="314.05671243303595"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{C48C0EDD-D440-4D26-9416-ED46C62C5937}" name="PivotTable1" cacheId="13" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A3:G34" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="14">
+    <pivotField axis="axisRow" showAll="0">
+      <items count="6">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="6">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+  </pivotFields>
+  <rowFields count="2">
+    <field x="0"/>
+    <field x="1"/>
+  </rowFields>
+  <rowItems count="31">
+    <i>
+      <x/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="4"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="6">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+    <i i="2">
+      <x v="2"/>
+    </i>
+    <i i="3">
+      <x v="3"/>
+    </i>
+    <i i="4">
+      <x v="4"/>
+    </i>
+    <i i="5">
+      <x v="5"/>
+    </i>
+  </colItems>
+  <dataFields count="6">
+    <dataField name="Average of total cost" fld="11" subtotal="average" baseField="1" baseItem="0" numFmtId="164"/>
+    <dataField name="Average of int vsp cols" fld="4" subtotal="average" baseField="1" baseItem="1" numFmtId="164"/>
+    <dataField name="Average of int csp cols" fld="5" subtotal="average" baseField="1" baseItem="1" numFmtId="164"/>
+    <dataField name="Average of cg runtime" fld="13" subtotal="average" baseField="1" baseItem="0" numFmtId="164"/>
+    <dataField name="Average of int vsp value" fld="2" subtotal="average" baseField="1" baseItem="3" numFmtId="164"/>
+    <dataField name="Average of int csp value" fld="3" subtotal="average" baseField="1" baseItem="3" numFmtId="164"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -910,46 +3214,831 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BFA6AB8-4BEB-4137-A90C-AB82F7AC9FF9}">
-  <dimension ref="A1:K126"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B3BA92A-77E7-4622-9573-2210BD6E254E}">
+  <dimension ref="A3:G34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G29" sqref="G29:G33"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="22.5703125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="3">
+        <v>500</v>
+      </c>
+      <c r="B4" s="5">
+        <v>15989.074806941795</v>
+      </c>
+      <c r="C4" s="5">
+        <v>544.64</v>
+      </c>
+      <c r="D4" s="5">
+        <v>6614.08</v>
+      </c>
+      <c r="E4" s="5">
+        <v>113.08147624257268</v>
+      </c>
+      <c r="F4" s="5">
+        <v>3395.1214736084994</v>
+      </c>
+      <c r="G4" s="5">
+        <v>12593.9533333333</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="4">
+        <v>500</v>
+      </c>
+      <c r="B5" s="5">
+        <v>16336.186953983701</v>
+      </c>
+      <c r="C5" s="5">
+        <v>604.4</v>
+      </c>
+      <c r="D5" s="5">
+        <v>2262.1999999999998</v>
+      </c>
+      <c r="E5" s="5">
+        <v>80.851102076453017</v>
+      </c>
+      <c r="F5" s="5">
+        <v>3386.35362065042</v>
+      </c>
+      <c r="G5" s="5">
+        <v>12949.833333333281</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="4">
+        <v>2500</v>
+      </c>
+      <c r="B6" s="5">
+        <v>16088.470287317041</v>
+      </c>
+      <c r="C6" s="5">
+        <v>577</v>
+      </c>
+      <c r="D6" s="5">
+        <v>4268.3999999999996</v>
+      </c>
+      <c r="E6" s="5">
+        <v>103.28832692033741</v>
+      </c>
+      <c r="F6" s="5">
+        <v>3386.35362065042</v>
+      </c>
+      <c r="G6" s="5">
+        <v>12702.116666666619</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="4">
+        <v>5000</v>
+      </c>
+      <c r="B7" s="5">
+        <v>15875.041759431761</v>
+      </c>
+      <c r="C7" s="5">
+        <v>515.79999999999995</v>
+      </c>
+      <c r="D7" s="5">
+        <v>6855.6</v>
+      </c>
+      <c r="E7" s="5">
+        <v>130.48903095019338</v>
+      </c>
+      <c r="F7" s="5">
+        <v>3386.9584260984425</v>
+      </c>
+      <c r="G7" s="5">
+        <v>12488.083333333319</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="4">
+        <v>10000</v>
+      </c>
+      <c r="B8" s="5">
+        <v>15727.954746659432</v>
+      </c>
+      <c r="C8" s="5">
+        <v>507.4</v>
+      </c>
+      <c r="D8" s="5">
+        <v>10262.6</v>
+      </c>
+      <c r="E8" s="5">
+        <v>126.9736494877134</v>
+      </c>
+      <c r="F8" s="5">
+        <v>3429.5880799927918</v>
+      </c>
+      <c r="G8" s="5">
+        <v>12298.36666666664</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="4">
+        <v>25000</v>
+      </c>
+      <c r="B9" s="5">
+        <v>15917.720287317041</v>
+      </c>
+      <c r="C9" s="5">
+        <v>518.6</v>
+      </c>
+      <c r="D9" s="5">
+        <v>9421.6</v>
+      </c>
+      <c r="E9" s="5">
+        <v>123.8052717781662</v>
+      </c>
+      <c r="F9" s="5">
+        <v>3386.35362065042</v>
+      </c>
+      <c r="G9" s="5">
+        <v>12531.366666666619</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="3">
+        <v>2500</v>
+      </c>
+      <c r="B10" s="5">
+        <v>15664.089402806396</v>
+      </c>
+      <c r="C10" s="5">
+        <v>2500</v>
+      </c>
+      <c r="D10" s="5">
+        <v>6870.96</v>
+      </c>
+      <c r="E10" s="5">
+        <v>187.20657246891903</v>
+      </c>
+      <c r="F10" s="5">
+        <v>3533.1627361397695</v>
+      </c>
+      <c r="G10" s="5">
+        <v>12130.926666666626</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="4">
+        <v>500</v>
+      </c>
+      <c r="B11" s="5">
+        <v>15744.394347463123</v>
+      </c>
+      <c r="C11" s="5">
+        <v>2500</v>
+      </c>
+      <c r="D11" s="5">
+        <v>2275.4</v>
+      </c>
+      <c r="E11" s="5">
+        <v>173.63317978856202</v>
+      </c>
+      <c r="F11" s="5">
+        <v>3683.9276807965043</v>
+      </c>
+      <c r="G11" s="5">
+        <v>12060.46666666662</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="4">
+        <v>2500</v>
+      </c>
+      <c r="B12" s="5">
+        <v>15695.939132007139</v>
+      </c>
+      <c r="C12" s="5">
+        <v>2500</v>
+      </c>
+      <c r="D12" s="5">
+        <v>4311.8</v>
+      </c>
+      <c r="E12" s="5">
+        <v>167.95666441663076</v>
+      </c>
+      <c r="F12" s="5">
+        <v>3482.6057986738379</v>
+      </c>
+      <c r="G12" s="5">
+        <v>12213.333333333299</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="4">
+        <v>5000</v>
+      </c>
+      <c r="B13" s="5">
+        <v>15761.034684961627</v>
+      </c>
+      <c r="C13" s="5">
+        <v>2500</v>
+      </c>
+      <c r="D13" s="5">
+        <v>6888.6</v>
+      </c>
+      <c r="E13" s="5">
+        <v>179.581738402702</v>
+      </c>
+      <c r="F13" s="5">
+        <v>3515.5180182950062</v>
+      </c>
+      <c r="G13" s="5">
+        <v>12245.516666666619</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="4">
+        <v>10000</v>
+      </c>
+      <c r="B14" s="5">
+        <v>15581.526923790327</v>
+      </c>
+      <c r="C14" s="5">
+        <v>2500</v>
+      </c>
+      <c r="D14" s="5">
+        <v>10457</v>
+      </c>
+      <c r="E14" s="5">
+        <v>198.22766225877479</v>
+      </c>
+      <c r="F14" s="5">
+        <v>3510.5102571237062</v>
+      </c>
+      <c r="G14" s="5">
+        <v>12071.016666666619</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="4">
+        <v>25000</v>
+      </c>
+      <c r="B15" s="5">
+        <v>15537.551925809752</v>
+      </c>
+      <c r="C15" s="5">
+        <v>2500</v>
+      </c>
+      <c r="D15" s="5">
+        <v>10422</v>
+      </c>
+      <c r="E15" s="5">
+        <v>216.63361747792541</v>
+      </c>
+      <c r="F15" s="5">
+        <v>3473.2519258097941</v>
+      </c>
+      <c r="G15" s="5">
+        <v>12064.299999999959</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="3">
+        <v>5000</v>
+      </c>
+      <c r="B16" s="5">
+        <v>15681.35424719498</v>
+      </c>
+      <c r="C16" s="5">
+        <v>5000</v>
+      </c>
+      <c r="D16" s="5">
+        <v>6449.48</v>
+      </c>
+      <c r="E16" s="5">
+        <v>195.93772498771858</v>
+      </c>
+      <c r="F16" s="5">
+        <v>3506.8509138616828</v>
+      </c>
+      <c r="G16" s="5">
+        <v>12174.503333333299</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="4">
+        <v>500</v>
+      </c>
+      <c r="B17" s="5">
+        <v>15615.373961432759</v>
+      </c>
+      <c r="C17" s="5">
+        <v>5000</v>
+      </c>
+      <c r="D17" s="5">
+        <v>2271</v>
+      </c>
+      <c r="E17" s="5">
+        <v>166.44971646035157</v>
+      </c>
+      <c r="F17" s="5">
+        <v>3633.0906280994582</v>
+      </c>
+      <c r="G17" s="5">
+        <v>11982.2833333333</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="4">
+        <v>2500</v>
+      </c>
+      <c r="B18" s="5">
+        <v>15692.235659976421</v>
+      </c>
+      <c r="C18" s="5">
+        <v>5000</v>
+      </c>
+      <c r="D18" s="5">
+        <v>4276.6000000000004</v>
+      </c>
+      <c r="E18" s="5">
+        <v>184.13967761312981</v>
+      </c>
+      <c r="F18" s="5">
+        <v>3474.1856599764601</v>
+      </c>
+      <c r="G18" s="5">
+        <v>12218.049999999959</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="4">
+        <v>5000</v>
+      </c>
+      <c r="B19" s="5">
+        <v>15728.062988054608</v>
+      </c>
+      <c r="C19" s="5">
+        <v>5000</v>
+      </c>
+      <c r="D19" s="5">
+        <v>6807.6</v>
+      </c>
+      <c r="E19" s="5">
+        <v>209.10313698741501</v>
+      </c>
+      <c r="F19" s="5">
+        <v>3516.4463213879658</v>
+      </c>
+      <c r="G19" s="5">
+        <v>12211.61666666664</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="4">
+        <v>10000</v>
+      </c>
+      <c r="B20" s="5">
+        <v>15709.949859129212</v>
+      </c>
+      <c r="C20" s="5">
+        <v>5000</v>
+      </c>
+      <c r="D20" s="5">
+        <v>8952.6</v>
+      </c>
+      <c r="E20" s="5">
+        <v>195.140066413466</v>
+      </c>
+      <c r="F20" s="5">
+        <v>3520.1831924625922</v>
+      </c>
+      <c r="G20" s="5">
+        <v>12189.766666666619</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="4">
+        <v>25000</v>
+      </c>
+      <c r="B21" s="5">
+        <v>15661.148767381897</v>
+      </c>
+      <c r="C21" s="5">
+        <v>5000</v>
+      </c>
+      <c r="D21" s="5">
+        <v>9939.6</v>
+      </c>
+      <c r="E21" s="5">
+        <v>224.85602746423055</v>
+      </c>
+      <c r="F21" s="5">
+        <v>3390.3487673819377</v>
+      </c>
+      <c r="G21" s="5">
+        <v>12270.799999999959</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="3">
+        <v>10000</v>
+      </c>
+      <c r="B22" s="5">
+        <v>15663.057735709001</v>
+      </c>
+      <c r="C22" s="5">
+        <v>10000</v>
+      </c>
+      <c r="D22" s="5">
+        <v>6450.24</v>
+      </c>
+      <c r="E22" s="5">
+        <v>232.84841220056319</v>
+      </c>
+      <c r="F22" s="5">
+        <v>3571.9810690423769</v>
+      </c>
+      <c r="G22" s="5">
+        <v>12091.076666666624</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="4">
+        <v>500</v>
+      </c>
+      <c r="B23" s="5">
+        <v>15702.317852469296</v>
+      </c>
+      <c r="C23" s="5">
+        <v>10000</v>
+      </c>
+      <c r="D23" s="5">
+        <v>2262</v>
+      </c>
+      <c r="E23" s="5">
+        <v>195.29507404604425</v>
+      </c>
+      <c r="F23" s="5">
+        <v>3558.1345191360138</v>
+      </c>
+      <c r="G23" s="5">
+        <v>12144.18333333328</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="4">
+        <v>2500</v>
+      </c>
+      <c r="B24" s="5">
+        <v>15570.535630770339</v>
+      </c>
+      <c r="C24" s="5">
+        <v>10000</v>
+      </c>
+      <c r="D24" s="5">
+        <v>4261.2</v>
+      </c>
+      <c r="E24" s="5">
+        <v>203.74902102311427</v>
+      </c>
+      <c r="F24" s="5">
+        <v>3674.1356307703782</v>
+      </c>
+      <c r="G24" s="5">
+        <v>11896.39999999996</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="4">
+        <v>5000</v>
+      </c>
+      <c r="B25" s="5">
+        <v>15696.795095225898</v>
+      </c>
+      <c r="C25" s="5">
+        <v>10000</v>
+      </c>
+      <c r="D25" s="5">
+        <v>6758.4</v>
+      </c>
+      <c r="E25" s="5">
+        <v>234.17612068908255</v>
+      </c>
+      <c r="F25" s="5">
+        <v>3518.3450952259577</v>
+      </c>
+      <c r="G25" s="5">
+        <v>12178.449999999939</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="4">
+        <v>10000</v>
+      </c>
+      <c r="B26" s="5">
+        <v>15677.514415318921</v>
+      </c>
+      <c r="C26" s="5">
+        <v>10000</v>
+      </c>
+      <c r="D26" s="5">
+        <v>9345</v>
+      </c>
+      <c r="E26" s="5">
+        <v>265.40416999592782</v>
+      </c>
+      <c r="F26" s="5">
+        <v>3514.5810819856379</v>
+      </c>
+      <c r="G26" s="5">
+        <v>12162.93333333328</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="4">
+        <v>25000</v>
+      </c>
+      <c r="B27" s="5">
+        <v>15668.125684760536</v>
+      </c>
+      <c r="C27" s="5">
+        <v>10000</v>
+      </c>
+      <c r="D27" s="5">
+        <v>9624.6</v>
+      </c>
+      <c r="E27" s="5">
+        <v>265.617675248647</v>
+      </c>
+      <c r="F27" s="5">
+        <v>3594.7090180938976</v>
+      </c>
+      <c r="G27" s="5">
+        <v>12073.416666666639</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="3">
+        <v>25000</v>
+      </c>
+      <c r="B28" s="5">
+        <v>15821.705587223354</v>
+      </c>
+      <c r="C28" s="5">
+        <v>25000</v>
+      </c>
+      <c r="D28" s="5">
+        <v>5930.52</v>
+      </c>
+      <c r="E28" s="5">
+        <v>305.98301361313878</v>
+      </c>
+      <c r="F28" s="5">
+        <v>3646.6689205567318</v>
+      </c>
+      <c r="G28" s="5">
+        <v>12175.036666666629</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="4">
+        <v>500</v>
+      </c>
+      <c r="B29" s="5">
+        <v>15920.316799245669</v>
+      </c>
+      <c r="C29" s="5">
+        <v>25000</v>
+      </c>
+      <c r="D29" s="5">
+        <v>2258.8000000000002</v>
+      </c>
+      <c r="E29" s="5">
+        <v>272.735676706915</v>
+      </c>
+      <c r="F29" s="5">
+        <v>3763.5167992457114</v>
+      </c>
+      <c r="G29" s="5">
+        <v>12156.799999999959</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" s="4">
+        <v>2500</v>
+      </c>
+      <c r="B30" s="5">
+        <v>15887.500640928958</v>
+      </c>
+      <c r="C30" s="5">
+        <v>25000</v>
+      </c>
+      <c r="D30" s="5">
+        <v>4258</v>
+      </c>
+      <c r="E30" s="5">
+        <v>298.55833335152619</v>
+      </c>
+      <c r="F30" s="5">
+        <v>3552.9506409289997</v>
+      </c>
+      <c r="G30" s="5">
+        <v>12334.549999999959</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" s="4">
+        <v>5000</v>
+      </c>
+      <c r="B31" s="5">
+        <v>15739.133239751798</v>
+      </c>
+      <c r="C31" s="5">
+        <v>25000</v>
+      </c>
+      <c r="D31" s="5">
+        <v>6755.8</v>
+      </c>
+      <c r="E31" s="5">
+        <v>330.42036780563029</v>
+      </c>
+      <c r="F31" s="5">
+        <v>3634.8832397518381</v>
+      </c>
+      <c r="G31" s="5">
+        <v>12104.24999999996</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" s="4">
+        <v>10000</v>
+      </c>
+      <c r="B32" s="5">
+        <v>15803.484630691546</v>
+      </c>
+      <c r="C32" s="5">
+        <v>25000</v>
+      </c>
+      <c r="D32" s="5">
+        <v>8009.4</v>
+      </c>
+      <c r="E32" s="5">
+        <v>314.88778531295821</v>
+      </c>
+      <c r="F32" s="5">
+        <v>3638.0179640249253</v>
+      </c>
+      <c r="G32" s="5">
+        <v>12165.46666666662</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" s="4">
+        <v>25000</v>
+      </c>
+      <c r="B33" s="5">
+        <v>15758.092625498801</v>
+      </c>
+      <c r="C33" s="5">
+        <v>25000</v>
+      </c>
+      <c r="D33" s="5">
+        <v>8370.6</v>
+      </c>
+      <c r="E33" s="5">
+        <v>313.31290488866415</v>
+      </c>
+      <c r="F33" s="5">
+        <v>3643.9759588321804</v>
+      </c>
+      <c r="G33" s="5">
+        <v>12114.116666666619</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B34" s="5">
+        <v>15763.856355975095</v>
+      </c>
+      <c r="C34" s="5">
+        <v>8608.9279999999999</v>
+      </c>
+      <c r="D34" s="5">
+        <v>6463.0559999999996</v>
+      </c>
+      <c r="E34" s="5">
+        <v>207.01143990258251</v>
+      </c>
+      <c r="F34" s="5">
+        <v>3530.7570226418134</v>
+      </c>
+      <c r="G34" s="5">
+        <v>12233.099333333277</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BFA6AB8-4BEB-4137-A90C-AB82F7AC9FF9}">
+  <dimension ref="A1:N126"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N2" sqref="N2:N126"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="12" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="11" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>500</v>
       </c>
@@ -983,8 +4072,20 @@
       <c r="K2">
         <v>224.1110932</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L2">
+        <f>C2+D2</f>
+        <v>16334.02028731702</v>
+      </c>
+      <c r="M2">
+        <f>ROUND(100*I2,1)</f>
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <f>K2-J2</f>
+        <v>73.818334258350006</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>500</v>
       </c>
@@ -1018,8 +4119,20 @@
       <c r="K3">
         <v>273.10863890000002</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L3">
+        <f t="shared" ref="L3:L66" si="0">C3+D3</f>
+        <v>16538.52028731702</v>
+      </c>
+      <c r="M3">
+        <f t="shared" ref="M3:M66" si="1">ROUND(100*I3,1)</f>
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <f t="shared" ref="N3:N66" si="2">K3-J3</f>
+        <v>122.650478976447</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>500</v>
       </c>
@@ -1053,8 +4166,20 @@
       <c r="K4">
         <v>218.77975420000001</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L4">
+        <f t="shared" si="0"/>
+        <v>16262.52028731702</v>
+      </c>
+      <c r="M4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <f t="shared" si="2"/>
+        <v>68.455450334568013</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>500</v>
       </c>
@@ -1088,8 +4213,20 @@
       <c r="K5">
         <v>224.93100720000001</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L5">
+        <f t="shared" si="0"/>
+        <v>16467.02028731702</v>
+      </c>
+      <c r="M5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <f t="shared" si="2"/>
+        <v>74.642345243213015</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>500</v>
       </c>
@@ -1123,8 +4260,20 @@
       <c r="K6">
         <v>214.7914485</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L6">
+        <f t="shared" si="0"/>
+        <v>16078.85362065042</v>
+      </c>
+      <c r="M6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <f t="shared" si="2"/>
+        <v>64.688901569687005</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>500</v>
       </c>
@@ -1158,8 +4307,20 @@
       <c r="K7">
         <v>238.6533264</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L7">
+        <f t="shared" si="0"/>
+        <v>16180.186953983719</v>
+      </c>
+      <c r="M7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <f t="shared" si="2"/>
+        <v>87.584392436224988</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>500</v>
       </c>
@@ -1193,8 +4354,20 @@
       <c r="K8">
         <v>248.81114700000001</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L8">
+        <f t="shared" si="0"/>
+        <v>15979.77028731702</v>
+      </c>
+      <c r="M8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <f t="shared" si="2"/>
+        <v>97.181282068894006</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>500</v>
       </c>
@@ -1228,8 +4401,20 @@
       <c r="K9">
         <v>261.58221570000001</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L9">
+        <f t="shared" si="0"/>
+        <v>16256.02028731702</v>
+      </c>
+      <c r="M9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <f t="shared" si="2"/>
+        <v>109.127869758457</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>500</v>
       </c>
@@ -1263,8 +4448,20 @@
       <c r="K10">
         <v>264.18489849999997</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L10">
+        <f t="shared" si="0"/>
+        <v>16184.52028731702</v>
+      </c>
+      <c r="M10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <f t="shared" si="2"/>
+        <v>112.13239658311497</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>500</v>
       </c>
@@ -1298,8 +4495,20 @@
       <c r="K11">
         <v>263.05649590000002</v>
       </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L11">
+        <f t="shared" si="0"/>
+        <v>15841.85362065042</v>
+      </c>
+      <c r="M11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <f t="shared" si="2"/>
+        <v>110.41569375499603</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>500</v>
       </c>
@@ -1333,8 +4542,20 @@
       <c r="K12">
         <v>286.04052489999998</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L12">
+        <f t="shared" si="0"/>
+        <v>15809.35362065042</v>
+      </c>
+      <c r="M12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <f t="shared" si="2"/>
+        <v>132.43875187639497</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>500</v>
       </c>
@@ -1368,8 +4589,20 @@
       <c r="K13">
         <v>276.05732890000002</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L13">
+        <f t="shared" si="0"/>
+        <v>15783.35362065042</v>
+      </c>
+      <c r="M13">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <f t="shared" si="2"/>
+        <v>124.659130772254</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>500</v>
       </c>
@@ -1403,8 +4636,20 @@
       <c r="K14">
         <v>287.98875479999998</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L14">
+        <f t="shared" si="0"/>
+        <v>15798.85362065042</v>
+      </c>
+      <c r="M14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <f t="shared" si="2"/>
+        <v>135.15135174099498</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>500</v>
       </c>
@@ -1438,8 +4683,20 @@
       <c r="K15">
         <v>273.55234309999997</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L15">
+        <f t="shared" si="0"/>
+        <v>16049.377647890531</v>
+      </c>
+      <c r="M15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <f t="shared" si="2"/>
+        <v>122.01423594324697</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>500</v>
       </c>
@@ -1473,8 +4730,20 @@
       <c r="K16">
         <v>292.77570550000002</v>
       </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L16">
+        <f t="shared" si="0"/>
+        <v>15934.27028731702</v>
+      </c>
+      <c r="M16">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N16">
+        <f t="shared" si="2"/>
+        <v>138.181684418076</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>500</v>
       </c>
@@ -1508,8 +4777,20 @@
       <c r="K17">
         <v>294.26556149999999</v>
       </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L17">
+        <f t="shared" si="0"/>
+        <v>15666.35362065042</v>
+      </c>
+      <c r="M17">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N17">
+        <f t="shared" si="2"/>
+        <v>143.11241737883</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>500</v>
       </c>
@@ -1543,8 +4824,20 @@
       <c r="K18">
         <v>268.11509790000002</v>
       </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L18">
+        <f t="shared" si="0"/>
+        <v>15883.35362065042</v>
+      </c>
+      <c r="M18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N18">
+        <f t="shared" si="2"/>
+        <v>114.90474094924102</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>500</v>
       </c>
@@ -1578,8 +4871,20 @@
       <c r="K19">
         <v>261.36049000000003</v>
       </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L19">
+        <f t="shared" si="0"/>
+        <v>15753.02591736218</v>
+      </c>
+      <c r="M19">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N19">
+        <f t="shared" si="2"/>
+        <v>108.20751920913702</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>500</v>
       </c>
@@ -1613,8 +4918,20 @@
       <c r="K20">
         <v>278.3901583</v>
       </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L20">
+        <f t="shared" si="0"/>
+        <v>15680.436953983719</v>
+      </c>
+      <c r="M20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N20">
+        <f t="shared" si="2"/>
+        <v>124.611172322828</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>500</v>
       </c>
@@ -1648,8 +4965,20 @@
       <c r="K21">
         <v>296.75653560000001</v>
       </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L21">
+        <f t="shared" si="0"/>
+        <v>15656.60362065042</v>
+      </c>
+      <c r="M21">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N21">
+        <f t="shared" si="2"/>
+        <v>144.032397578531</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>500</v>
       </c>
@@ -1683,8 +5012,20 @@
       <c r="K22">
         <v>261.56896610000001</v>
       </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L22">
+        <f t="shared" si="0"/>
+        <v>16064.77028731702</v>
+      </c>
+      <c r="M22">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N22">
+        <f t="shared" si="2"/>
+        <v>108.94174308516901</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>500</v>
       </c>
@@ -1718,8 +5059,20 @@
       <c r="K23">
         <v>301.89033999999998</v>
       </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L23">
+        <f t="shared" si="0"/>
+        <v>15700.27028731702</v>
+      </c>
+      <c r="M23">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N23">
+        <f t="shared" si="2"/>
+        <v>137.18124189933798</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>500</v>
       </c>
@@ -1753,8 +5106,20 @@
       <c r="K24">
         <v>265.12915770000001</v>
       </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L24">
+        <f t="shared" si="0"/>
+        <v>16036.10362065042</v>
+      </c>
+      <c r="M24">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N24">
+        <f t="shared" si="2"/>
+        <v>114.336646713672</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>500</v>
       </c>
@@ -1788,8 +5153,20 @@
       <c r="K25">
         <v>301.96353640000001</v>
       </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L25">
+        <f t="shared" si="0"/>
+        <v>15771.436953983719</v>
+      </c>
+      <c r="M25">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <f t="shared" si="2"/>
+        <v>145.63781847397502</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>500</v>
       </c>
@@ -1823,8 +5200,20 @@
       <c r="K26">
         <v>263.93131770000002</v>
       </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L26">
+        <f t="shared" si="0"/>
+        <v>16016.02028731702</v>
+      </c>
+      <c r="M26">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N26">
+        <f t="shared" si="2"/>
+        <v>112.92890871867704</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>2500</v>
       </c>
@@ -1858,8 +5247,20 @@
       <c r="K27">
         <v>297.62439799999999</v>
       </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L27">
+        <f t="shared" si="0"/>
+        <v>15747.5352512311</v>
+      </c>
+      <c r="M27">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N27">
+        <f t="shared" si="2"/>
+        <v>144.97568894123899</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>2500</v>
       </c>
@@ -1893,8 +5294,20 @@
       <c r="K28">
         <v>376.69885929999998</v>
       </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L28">
+        <f t="shared" si="0"/>
+        <v>15734.603620650319</v>
+      </c>
+      <c r="M28">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N28">
+        <f t="shared" si="2"/>
+        <v>223.86826523719498</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>2500</v>
       </c>
@@ -1928,8 +5341,20 @@
       <c r="K29">
         <v>340.21641160000001</v>
       </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L29">
+        <f t="shared" si="0"/>
+        <v>15578.652797663861</v>
+      </c>
+      <c r="M29">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N29">
+        <f t="shared" si="2"/>
+        <v>187.45986963260901</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>2500</v>
       </c>
@@ -1963,8 +5388,20 @@
       <c r="K30">
         <v>302.91511409999998</v>
       </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L30">
+        <f t="shared" si="0"/>
+        <v>16096.153168332519</v>
+      </c>
+      <c r="M30">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N30">
+        <f t="shared" si="2"/>
+        <v>151.50792401554298</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>2500</v>
       </c>
@@ -1998,8 +5435,20 @@
       <c r="K31">
         <v>314.33887229999999</v>
       </c>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L31">
+        <f t="shared" si="0"/>
+        <v>15565.02689943782</v>
+      </c>
+      <c r="M31">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N31">
+        <f t="shared" si="2"/>
+        <v>160.35415111622399</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>2500</v>
       </c>
@@ -2033,8 +5482,20 @@
       <c r="K32">
         <v>750.71244249999995</v>
       </c>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L32">
+        <f t="shared" si="0"/>
+        <v>15889.85362065042</v>
+      </c>
+      <c r="M32">
+        <f t="shared" si="1"/>
+        <v>0.6</v>
+      </c>
+      <c r="N32">
+        <f t="shared" si="2"/>
+        <v>150.69052134216395</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>2500</v>
       </c>
@@ -2068,8 +5529,20 @@
       <c r="K33">
         <v>306.34360090000001</v>
       </c>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L33">
+        <f t="shared" si="0"/>
+        <v>15658.720197303461</v>
+      </c>
+      <c r="M33">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N33">
+        <f t="shared" si="2"/>
+        <v>151.85311380130702</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>2500</v>
       </c>
@@ -2103,8 +5576,20 @@
       <c r="K34">
         <v>410.08244409999998</v>
       </c>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L34">
+        <f t="shared" si="0"/>
+        <v>15867.11236364282</v>
+      </c>
+      <c r="M34">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N34">
+        <f t="shared" si="2"/>
+        <v>173.35533109150097</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>2500</v>
       </c>
@@ -2138,8 +5623,20 @@
       <c r="K35">
         <v>364.49940609999999</v>
       </c>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L35">
+        <f t="shared" si="0"/>
+        <v>15342.39132938237</v>
+      </c>
+      <c r="M35">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N35">
+        <f t="shared" si="2"/>
+        <v>208.62003016539998</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>2500</v>
       </c>
@@ -2173,8 +5670,20 @@
       <c r="K36">
         <v>308.9899388</v>
       </c>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L36">
+        <f t="shared" si="0"/>
+        <v>15721.61814905662</v>
+      </c>
+      <c r="M36">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N36">
+        <f t="shared" si="2"/>
+        <v>155.26432568278202</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>2500</v>
       </c>
@@ -2208,8 +5717,20 @@
       <c r="K37">
         <v>329.8124396</v>
       </c>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L37">
+        <f t="shared" si="0"/>
+        <v>15858.436953983719</v>
+      </c>
+      <c r="M37">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N37">
+        <f t="shared" si="2"/>
+        <v>177.953498760233</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>2500</v>
       </c>
@@ -2243,8 +5764,20 @@
       <c r="K38">
         <v>322.17095710000001</v>
       </c>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L38">
+        <f t="shared" si="0"/>
+        <v>15947.192162048879</v>
+      </c>
+      <c r="M38">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N38">
+        <f t="shared" si="2"/>
+        <v>170.01833106240301</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>2500</v>
       </c>
@@ -2278,8 +5811,20 @@
       <c r="K39">
         <v>318.91120690000002</v>
       </c>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L39">
+        <f t="shared" si="0"/>
+        <v>15620.25373414149</v>
+      </c>
+      <c r="M39">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N39">
+        <f t="shared" si="2"/>
+        <v>165.28178709638104</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>2500</v>
       </c>
@@ -2313,8 +5858,20 @@
       <c r="K40">
         <v>327.33211060000002</v>
       </c>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L40">
+        <f t="shared" si="0"/>
+        <v>15655.52028731702</v>
+      </c>
+      <c r="M40">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N40">
+        <f t="shared" si="2"/>
+        <v>173.99763269854202</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>2500</v>
       </c>
@@ -2348,8 +5905,20 @@
       <c r="K41">
         <v>368.02763850000002</v>
       </c>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L41">
+        <f t="shared" si="0"/>
+        <v>15723.77028731702</v>
+      </c>
+      <c r="M41">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N41">
+        <f t="shared" si="2"/>
+        <v>210.65744239595102</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>2500</v>
       </c>
@@ -2383,8 +5952,20 @@
       <c r="K42">
         <v>382.9891849</v>
       </c>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L42">
+        <f t="shared" si="0"/>
+        <v>15674.513626421849</v>
+      </c>
+      <c r="M42">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N42">
+        <f t="shared" si="2"/>
+        <v>227.11797885485001</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>2500</v>
       </c>
@@ -2418,8 +5999,20 @@
       <c r="K43">
         <v>319.3882873</v>
       </c>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L43">
+        <f t="shared" si="0"/>
+        <v>15583.420400808189</v>
+      </c>
+      <c r="M43">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N43">
+        <f t="shared" si="2"/>
+        <v>167.35361909283199</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>2500</v>
       </c>
@@ -2453,8 +6046,20 @@
       <c r="K44">
         <v>339.3704821</v>
       </c>
-    </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L44">
+        <f t="shared" si="0"/>
+        <v>15733.52028731702</v>
+      </c>
+      <c r="M44">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N44">
+        <f t="shared" si="2"/>
+        <v>184.47368110512701</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>2500</v>
       </c>
@@ -2488,8 +6093,20 @@
       <c r="K45">
         <v>338.4282814</v>
       </c>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L45">
+        <f t="shared" si="0"/>
+        <v>15305.350783304551</v>
+      </c>
+      <c r="M45">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N45">
+        <f t="shared" si="2"/>
+        <v>187.09299835900001</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>2500</v>
       </c>
@@ -2523,8 +6140,20 @@
       <c r="K46">
         <v>381.58891999999997</v>
       </c>
-    </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L46">
+        <f t="shared" si="0"/>
+        <v>15610.82952110002</v>
+      </c>
+      <c r="M46">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N46">
+        <f t="shared" si="2"/>
+        <v>225.10003388206496</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>2500</v>
       </c>
@@ -2558,8 +6187,20 @@
       <c r="K47">
         <v>347.29207919999999</v>
       </c>
-    </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L47">
+        <f t="shared" si="0"/>
+        <v>15579.087067474889</v>
+      </c>
+      <c r="M47">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N47">
+        <f t="shared" si="2"/>
+        <v>194.387113322468</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>2500</v>
       </c>
@@ -2593,8 +6234,20 @@
       <c r="K48">
         <v>860.55486800000006</v>
       </c>
-    </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L48">
+        <f t="shared" si="0"/>
+        <v>15772.52028731702</v>
+      </c>
+      <c r="M48">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N48">
+        <f t="shared" si="2"/>
+        <v>260.53002311512807</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>2500</v>
       </c>
@@ -2628,8 +6281,20 @@
       <c r="K49">
         <v>375.84676530000002</v>
       </c>
-    </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L49">
+        <f t="shared" si="0"/>
+        <v>15366.74271655777</v>
+      </c>
+      <c r="M49">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N49">
+        <f t="shared" si="2"/>
+        <v>222.45303442117103</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>2500</v>
       </c>
@@ -2663,8 +6328,20 @@
       <c r="K50">
         <v>387.89462630000003</v>
       </c>
-    </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L50">
+        <f t="shared" si="0"/>
+        <v>15574.75373414149</v>
+      </c>
+      <c r="M50">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N50">
+        <f t="shared" si="2"/>
+        <v>229.04795638766203</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>2500</v>
       </c>
@@ -2698,8 +6375,20 @@
       <c r="K51">
         <v>327.93518110000002</v>
       </c>
-    </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L51">
+        <f t="shared" si="0"/>
+        <v>15394.655823557601</v>
+      </c>
+      <c r="M51">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N51">
+        <f t="shared" si="2"/>
+        <v>176.74996014319802</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>5000</v>
       </c>
@@ -2733,8 +6422,20 @@
       <c r="K52">
         <v>315.54654799999997</v>
       </c>
-    </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L52">
+        <f t="shared" si="0"/>
+        <v>15592.098377017579</v>
+      </c>
+      <c r="M52">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N52">
+        <f t="shared" si="2"/>
+        <v>161.77674495281997</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>5000</v>
       </c>
@@ -2768,8 +6469,20 @@
       <c r="K53">
         <v>316.99185080000001</v>
       </c>
-    </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L53">
+        <f t="shared" si="0"/>
+        <v>15611.319716679429</v>
+      </c>
+      <c r="M53">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N53">
+        <f t="shared" si="2"/>
+        <v>164.707766718351</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>5000</v>
       </c>
@@ -2803,8 +6516,20 @@
       <c r="K54">
         <v>306.97853570000001</v>
       </c>
-    </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L54">
+        <f t="shared" si="0"/>
+        <v>15531.185816504341</v>
+      </c>
+      <c r="M54">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N54">
+        <f t="shared" si="2"/>
+        <v>154.24815969482802</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>5000</v>
       </c>
@@ -2838,8 +6563,20 @@
       <c r="K55">
         <v>327.9827727</v>
       </c>
-    </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L55">
+        <f t="shared" si="0"/>
+        <v>15700.101720047211</v>
+      </c>
+      <c r="M55">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N55">
+        <f t="shared" si="2"/>
+        <v>177.006531826664</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>5000</v>
       </c>
@@ -2873,8 +6610,20 @@
       <c r="K56">
         <v>326.36334010000002</v>
       </c>
-    </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L56">
+        <f t="shared" si="0"/>
+        <v>15642.16417691523</v>
+      </c>
+      <c r="M56">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N56">
+        <f t="shared" si="2"/>
+        <v>174.50937910909502</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>5000</v>
       </c>
@@ -2908,8 +6657,20 @@
       <c r="K57">
         <v>332.07702360000002</v>
       </c>
-    </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L57">
+        <f t="shared" si="0"/>
+        <v>15788.677033622771</v>
+      </c>
+      <c r="M57">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N57">
+        <f t="shared" si="2"/>
+        <v>178.14661655272903</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>5000</v>
       </c>
@@ -2943,8 +6704,20 @@
       <c r="K58">
         <v>322.61682059999998</v>
       </c>
-    </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L58">
+        <f t="shared" si="0"/>
+        <v>15620.25373414149</v>
+      </c>
+      <c r="M58">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N58">
+        <f t="shared" si="2"/>
+        <v>167.56244757410599</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>5000</v>
       </c>
@@ -2978,8 +6751,20 @@
       <c r="K59">
         <v>365.23276060000001</v>
       </c>
-    </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L59">
+        <f t="shared" si="0"/>
+        <v>15619.496187766719</v>
+      </c>
+      <c r="M59">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N59">
+        <f t="shared" si="2"/>
+        <v>212.28093378916401</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>5000</v>
       </c>
@@ -3013,8 +6798,20 @@
       <c r="K60">
         <v>342.90245299999998</v>
       </c>
-    </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L60">
+        <f t="shared" si="0"/>
+        <v>15806.4810570341</v>
+      </c>
+      <c r="M60">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N60">
+        <f t="shared" si="2"/>
+        <v>183.55959110920799</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>5000</v>
       </c>
@@ -3048,8 +6845,20 @@
       <c r="K61">
         <v>558.68851289999998</v>
       </c>
-    </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L61">
+        <f t="shared" si="0"/>
+        <v>15626.27028731702</v>
+      </c>
+      <c r="M61">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N61">
+        <f t="shared" si="2"/>
+        <v>179.14879904044199</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>5000</v>
       </c>
@@ -3083,8 +6892,20 @@
       <c r="K62">
         <v>354.50637180000001</v>
       </c>
-    </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L62">
+        <f t="shared" si="0"/>
+        <v>15781.09370028937</v>
+      </c>
+      <c r="M62">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N62">
+        <f t="shared" si="2"/>
+        <v>196.25472075134002</v>
+      </c>
+    </row>
+    <row r="63" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>5000</v>
       </c>
@@ -3118,8 +6939,20 @@
       <c r="K63">
         <v>419.22567479999998</v>
       </c>
-    </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L63">
+        <f t="shared" si="0"/>
+        <v>15563.920400808189</v>
+      </c>
+      <c r="M63">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N63">
+        <f t="shared" si="2"/>
+        <v>234.35987584980498</v>
+      </c>
+    </row>
+    <row r="64" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>5000</v>
       </c>
@@ -3153,8 +6986,20 @@
       <c r="K64">
         <v>355.00074890000002</v>
       </c>
-    </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L64">
+        <f t="shared" si="0"/>
+        <v>15842.186953983719</v>
+      </c>
+      <c r="M64">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N64">
+        <f t="shared" si="2"/>
+        <v>194.56983092171401</v>
+      </c>
+    </row>
+    <row r="65" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>5000</v>
       </c>
@@ -3188,8 +7033,20 @@
       <c r="K65">
         <v>382.98827640000002</v>
       </c>
-    </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L65">
+        <f t="shared" si="0"/>
+        <v>15696.851720047211</v>
+      </c>
+      <c r="M65">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N65">
+        <f t="shared" si="2"/>
+        <v>228.53073636475301</v>
+      </c>
+    </row>
+    <row r="66" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>5000</v>
       </c>
@@ -3223,8 +7080,20 @@
       <c r="K66">
         <v>346.70392909999998</v>
       </c>
-    </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L66">
+        <f t="shared" si="0"/>
+        <v>15756.262165144541</v>
+      </c>
+      <c r="M66">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N66">
+        <f t="shared" si="2"/>
+        <v>191.80052104946299</v>
+      </c>
+    </row>
+    <row r="67" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>5000</v>
       </c>
@@ -3258,8 +7127,20 @@
       <c r="K67">
         <v>377.28903309999998</v>
       </c>
-    </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L67">
+        <f t="shared" ref="L67:L126" si="3">C67+D67</f>
+        <v>15824.008751126801</v>
+      </c>
+      <c r="M67">
+        <f t="shared" ref="M67:M126" si="4">ROUND(100*I67,1)</f>
+        <v>0</v>
+      </c>
+      <c r="N67">
+        <f t="shared" ref="N67:N126" si="5">K67-J67</f>
+        <v>219.969305202356</v>
+      </c>
+    </row>
+    <row r="68" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>5000</v>
       </c>
@@ -3293,8 +7174,20 @@
       <c r="K68">
         <v>337.88322849999997</v>
       </c>
-    </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L68">
+        <f t="shared" si="3"/>
+        <v>15742.19314943584</v>
+      </c>
+      <c r="M68">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="N68">
+        <f t="shared" si="5"/>
+        <v>180.26217146646198</v>
+      </c>
+    </row>
+    <row r="69" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>5000</v>
       </c>
@@ -3328,8 +7221,20 @@
       <c r="K69">
         <v>377.63688109999998</v>
       </c>
-    </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L69">
+        <f t="shared" si="3"/>
+        <v>15500.00373414149</v>
+      </c>
+      <c r="M69">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="N69">
+        <f t="shared" si="5"/>
+        <v>220.10335920935998</v>
+      </c>
+    </row>
+    <row r="70" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>5000</v>
       </c>
@@ -3363,8 +7268,20 @@
       <c r="K70">
         <v>313.55102190000002</v>
       </c>
-    </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L70">
+        <f t="shared" si="3"/>
+        <v>15745.690040291511</v>
+      </c>
+      <c r="M70">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="N70">
+        <f t="shared" si="5"/>
+        <v>161.26325806600101</v>
+      </c>
+    </row>
+    <row r="71" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>5000</v>
       </c>
@@ -3398,8 +7315,20 @@
       <c r="K71">
         <v>351.79917330000001</v>
       </c>
-    </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L71">
+        <f t="shared" si="3"/>
+        <v>15737.85362065042</v>
+      </c>
+      <c r="M71">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="N71">
+        <f t="shared" si="5"/>
+        <v>194.10223812315101</v>
+      </c>
+    </row>
+    <row r="72" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>5000</v>
       </c>
@@ -3433,8 +7362,20 @@
       <c r="K72">
         <v>376.4345088</v>
       </c>
-    </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L72">
+        <f t="shared" si="3"/>
+        <v>15530.337067474889</v>
+      </c>
+      <c r="M72">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="N72">
+        <f t="shared" si="5"/>
+        <v>222.069008826703</v>
+      </c>
+    </row>
+    <row r="73" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>5000</v>
       </c>
@@ -3468,8 +7409,20 @@
       <c r="K73">
         <v>452.70535489999997</v>
       </c>
-    </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L73">
+        <f t="shared" si="3"/>
+        <v>15631.686953983719</v>
+      </c>
+      <c r="M73">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="N73">
+        <f t="shared" si="5"/>
+        <v>291.10200688326199</v>
+      </c>
+    </row>
+    <row r="74" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>5000</v>
       </c>
@@ -3503,8 +7456,20 @@
       <c r="K74">
         <v>344.78019180000001</v>
       </c>
-    </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L74">
+        <f t="shared" si="3"/>
+        <v>15749.77028731702</v>
+      </c>
+      <c r="M74">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="N74">
+        <f t="shared" si="5"/>
+        <v>183.96928467452702</v>
+      </c>
+    </row>
+    <row r="75" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>5000</v>
       </c>
@@ -3538,8 +7503,20 @@
       <c r="K75">
         <v>379.9204479</v>
       </c>
-    </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L75">
+        <f t="shared" si="3"/>
+        <v>15673.41471241054</v>
+      </c>
+      <c r="M75">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="N75">
+        <f t="shared" si="5"/>
+        <v>225.87166292876299</v>
+      </c>
+    </row>
+    <row r="76" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>5000</v>
       </c>
@@ -3573,8 +7550,20 @@
       <c r="K76">
         <v>354.99204809999998</v>
       </c>
-    </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L76">
+        <f t="shared" si="3"/>
+        <v>15720.53481572332</v>
+      </c>
+      <c r="M76">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="N76">
+        <f t="shared" si="5"/>
+        <v>201.26817400789798</v>
+      </c>
+    </row>
+    <row r="77" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>10000</v>
       </c>
@@ -3608,8 +7597,20 @@
       <c r="K77">
         <v>332.88872629999997</v>
       </c>
-    </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L77">
+        <f t="shared" si="3"/>
+        <v>15374.444248534559</v>
+      </c>
+      <c r="M77">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="N77">
+        <f t="shared" si="5"/>
+        <v>181.20674044489797</v>
+      </c>
+    </row>
+    <row r="78" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>10000</v>
       </c>
@@ -3643,8 +7644,20 @@
       <c r="K78">
         <v>349.37829470000003</v>
       </c>
-    </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L78">
+        <f t="shared" si="3"/>
+        <v>15954.43301996461</v>
+      </c>
+      <c r="M78">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="N78">
+        <f t="shared" si="5"/>
+        <v>191.53194784483702</v>
+      </c>
+    </row>
+    <row r="79" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>10000</v>
       </c>
@@ -3678,8 +7691,20 @@
       <c r="K79">
         <v>353.9186828</v>
       </c>
-    </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L79">
+        <f t="shared" si="3"/>
+        <v>15704.483402122831</v>
+      </c>
+      <c r="M79">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="N79">
+        <f t="shared" si="5"/>
+        <v>201.53718899316101</v>
+      </c>
+    </row>
+    <row r="80" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>10000</v>
       </c>
@@ -3713,8 +7738,20 @@
       <c r="K80">
         <v>348.28504229999999</v>
       </c>
-    </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L80">
+        <f t="shared" si="3"/>
+        <v>15800.686953983719</v>
+      </c>
+      <c r="M80">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="N80">
+        <f t="shared" si="5"/>
+        <v>195.20940734364098</v>
+      </c>
+    </row>
+    <row r="81" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>10000</v>
       </c>
@@ -3748,8 +7785,20 @@
       <c r="K81">
         <v>363.13730550000002</v>
       </c>
-    </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L81">
+        <f t="shared" si="3"/>
+        <v>15677.541637740749</v>
+      </c>
+      <c r="M81">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="N81">
+        <f t="shared" si="5"/>
+        <v>206.99008560368404</v>
+      </c>
+    </row>
+    <row r="82" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>10000</v>
       </c>
@@ -3783,8 +7832,20 @@
       <c r="K82">
         <v>330.40220849999997</v>
       </c>
-    </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L82">
+        <f t="shared" si="3"/>
+        <v>15577.47303232629</v>
+      </c>
+      <c r="M82">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="N82">
+        <f t="shared" si="5"/>
+        <v>177.67128150949097</v>
+      </c>
+    </row>
+    <row r="83" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>10000</v>
       </c>
@@ -3818,8 +7879,20 @@
       <c r="K83">
         <v>391.06612990000002</v>
       </c>
-    </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L83">
+        <f t="shared" si="3"/>
+        <v>15462.46810967143</v>
+      </c>
+      <c r="M83">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="N83">
+        <f t="shared" si="5"/>
+        <v>232.02501700022003</v>
+      </c>
+    </row>
+    <row r="84" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>10000</v>
       </c>
@@ -3853,8 +7926,20 @@
       <c r="K84">
         <v>361.93231079999998</v>
       </c>
-    </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L84">
+        <f t="shared" si="3"/>
+        <v>15619.842084460201</v>
+      </c>
+      <c r="M84">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="N84">
+        <f t="shared" si="5"/>
+        <v>207.22226069395199</v>
+      </c>
+    </row>
+    <row r="85" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>10000</v>
       </c>
@@ -3888,8 +7973,20 @@
       <c r="K85">
         <v>210.29535799999999</v>
       </c>
-    </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L85">
+        <f t="shared" si="3"/>
+        <v>15612.72452658558</v>
+      </c>
+      <c r="M85">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="N85">
+        <f t="shared" si="5"/>
+        <v>196.04817706127929</v>
+      </c>
+    </row>
+    <row r="86" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>10000</v>
       </c>
@@ -3923,8 +8020,20 @@
       <c r="K86">
         <v>357.97998180000002</v>
       </c>
-    </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L86">
+        <f t="shared" si="3"/>
+        <v>15580.170400808189</v>
+      </c>
+      <c r="M86">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="N86">
+        <f t="shared" si="5"/>
+        <v>205.77836885062902</v>
+      </c>
+    </row>
+    <row r="87" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>10000</v>
       </c>
@@ -3958,8 +8067,20 @@
       <c r="K87">
         <v>358.89893530000001</v>
       </c>
-    </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L87">
+        <f t="shared" si="3"/>
+        <v>15669.768224527739</v>
+      </c>
+      <c r="M87">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="N87">
+        <f t="shared" si="5"/>
+        <v>206.53247330773701</v>
+      </c>
+    </row>
+    <row r="88" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>10000</v>
       </c>
@@ -3993,8 +8114,20 @@
       <c r="K88">
         <v>448.7778667</v>
       </c>
-    </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L88">
+        <f t="shared" si="3"/>
+        <v>15415.328509467259</v>
+      </c>
+      <c r="M88">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="N88">
+        <f t="shared" si="5"/>
+        <v>292.21708474428101</v>
+      </c>
+    </row>
+    <row r="89" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>10000</v>
       </c>
@@ -4028,8 +8161,20 @@
       <c r="K89">
         <v>391.4734426</v>
       </c>
-    </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L89">
+        <f t="shared" si="3"/>
+        <v>15850.853620650319</v>
+      </c>
+      <c r="M89">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="N89">
+        <f t="shared" si="5"/>
+        <v>231.634668634165</v>
+      </c>
+    </row>
+    <row r="90" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>10000</v>
       </c>
@@ -4063,8 +8208,20 @@
       <c r="K90">
         <v>366.54954629999997</v>
       </c>
-    </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L90">
+        <f t="shared" si="3"/>
+        <v>15806.03195703852</v>
+      </c>
+      <c r="M90">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="N90">
+        <f t="shared" si="5"/>
+        <v>206.96939831835698</v>
+      </c>
+    </row>
+    <row r="91" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>10000</v>
       </c>
@@ -4098,8 +8255,20 @@
       <c r="K91">
         <v>385.67747850000001</v>
       </c>
-    </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L91">
+        <f t="shared" si="3"/>
+        <v>15741.99316444565</v>
+      </c>
+      <c r="M91">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="N91">
+        <f t="shared" si="5"/>
+        <v>233.52697844087299</v>
+      </c>
+    </row>
+    <row r="92" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>10000</v>
       </c>
@@ -4133,8 +8302,20 @@
       <c r="K92">
         <v>359.62443159999998</v>
       </c>
-    </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L92">
+        <f t="shared" si="3"/>
+        <v>15709.758751126801</v>
+      </c>
+      <c r="M92">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="N92">
+        <f t="shared" si="5"/>
+        <v>206.84583877506498</v>
+      </c>
+    </row>
+    <row r="93" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>10000</v>
       </c>
@@ -4168,8 +8349,20 @@
       <c r="K93">
         <v>381.67740209999999</v>
       </c>
-    </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L93">
+        <f t="shared" si="3"/>
+        <v>15636.24670326577</v>
+      </c>
+      <c r="M93">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="N93">
+        <f t="shared" si="5"/>
+        <v>216.01535018387798</v>
+      </c>
+    </row>
+    <row r="94" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>10000</v>
       </c>
@@ -4203,8 +8396,20 @@
       <c r="K94">
         <v>625.43838319999998</v>
       </c>
-    </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L94">
+        <f t="shared" si="3"/>
+        <v>15769.75373414149</v>
+      </c>
+      <c r="M94">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="N94">
+        <f t="shared" si="5"/>
+        <v>315.95306811554298</v>
+      </c>
+    </row>
+    <row r="95" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>10000</v>
       </c>
@@ -4238,8 +8443,20 @@
       <c r="K95">
         <v>511.00309979999997</v>
       </c>
-    </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L95">
+        <f t="shared" si="3"/>
+        <v>15704.64248725234</v>
+      </c>
+      <c r="M95">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="N95">
+        <f t="shared" si="5"/>
+        <v>318.94110667789994</v>
+      </c>
+    </row>
+    <row r="96" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>10000</v>
       </c>
@@ -4273,8 +8490,20 @@
       <c r="K96">
         <v>428.82361220000001</v>
       </c>
-    </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L96">
+        <f t="shared" si="3"/>
+        <v>15567.170400808189</v>
+      </c>
+      <c r="M96">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="N96">
+        <f t="shared" si="5"/>
+        <v>269.26548622725301</v>
+      </c>
+    </row>
+    <row r="97" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>10000</v>
       </c>
@@ -4308,8 +8537,20 @@
       <c r="K97">
         <v>357.69083239999998</v>
       </c>
-    </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L97">
+        <f t="shared" si="3"/>
+        <v>16059.936953983719</v>
+      </c>
+      <c r="M97">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="N97">
+        <f t="shared" si="5"/>
+        <v>199.81912233797397</v>
+      </c>
+    </row>
+    <row r="98" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>10000</v>
       </c>
@@ -4343,8 +8584,20 @@
       <c r="K98">
         <v>466.36988989999998</v>
       </c>
-    </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L98">
+        <f t="shared" si="3"/>
+        <v>15358.55494612817</v>
+      </c>
+      <c r="M98">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="N98">
+        <f t="shared" si="5"/>
+        <v>308.87852279833101</v>
+      </c>
+    </row>
+    <row r="99" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>10000</v>
       </c>
@@ -4378,8 +8631,20 @@
       <c r="K99">
         <v>371.77254340000002</v>
       </c>
-    </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L99">
+        <f t="shared" si="3"/>
+        <v>16023.10362065042</v>
+      </c>
+      <c r="M99">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="N99">
+        <f t="shared" si="5"/>
+        <v>210.88646241970002</v>
+      </c>
+    </row>
+    <row r="100" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>10000</v>
       </c>
@@ -4413,8 +8678,20 @@
       <c r="K100">
         <v>458.09620869999998</v>
       </c>
-    </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L100">
+        <f t="shared" si="3"/>
+        <v>15469.064793368949</v>
+      </c>
+      <c r="M100">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="N100">
+        <f t="shared" si="5"/>
+        <v>291.72099674588401</v>
+      </c>
+    </row>
+    <row r="101" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>10000</v>
       </c>
@@ -4448,8 +8725,20 @@
       <c r="K101">
         <v>494.406068</v>
       </c>
-    </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L101">
+        <f t="shared" si="3"/>
+        <v>15429.96810967143</v>
+      </c>
+      <c r="M101">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="N101">
+        <f t="shared" si="5"/>
+        <v>316.78327194134602</v>
+      </c>
+    </row>
+    <row r="102" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>25000</v>
       </c>
@@ -4483,8 +8772,20 @@
       <c r="K102">
         <v>524.30483349999997</v>
       </c>
-    </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L102">
+        <f t="shared" si="3"/>
+        <v>15969.82214553403</v>
+      </c>
+      <c r="M102">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="N102">
+        <f t="shared" si="5"/>
+        <v>281.19623049936001</v>
+      </c>
+    </row>
+    <row r="103" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>25000</v>
       </c>
@@ -4518,8 +8819,20 @@
       <c r="K103">
         <v>419.40542900000003</v>
       </c>
-    </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L103">
+        <f t="shared" si="3"/>
+        <v>15800.077335321821</v>
+      </c>
+      <c r="M103">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="N103">
+        <f t="shared" si="5"/>
+        <v>264.57189189825499</v>
+      </c>
+    </row>
+    <row r="104" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>25000</v>
       </c>
@@ -4553,8 +8866,20 @@
       <c r="K104">
         <v>437.44816489999999</v>
       </c>
-    </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L104">
+        <f t="shared" si="3"/>
+        <v>16203.173815704438</v>
+      </c>
+      <c r="M104">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="N104">
+        <f t="shared" si="5"/>
+        <v>268.743990858252</v>
+      </c>
+    </row>
+    <row r="105" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>25000</v>
       </c>
@@ -4588,8 +8913,20 @@
       <c r="K105">
         <v>453.36251429999999</v>
       </c>
-    </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L105">
+        <f t="shared" si="3"/>
+        <v>15755.997073246221</v>
+      </c>
+      <c r="M105">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="N105">
+        <f t="shared" si="5"/>
+        <v>299.89807729209599</v>
+      </c>
+    </row>
+    <row r="106" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>25000</v>
       </c>
@@ -4623,8 +8960,20 @@
       <c r="K106">
         <v>401.75437210000001</v>
       </c>
-    </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L106">
+        <f t="shared" si="3"/>
+        <v>15872.513626421849</v>
+      </c>
+      <c r="M106">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="N106">
+        <f t="shared" si="5"/>
+        <v>249.26819298661201</v>
+      </c>
+    </row>
+    <row r="107" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>25000</v>
       </c>
@@ -4658,8 +9007,20 @@
       <c r="K107">
         <v>446.08771130000002</v>
       </c>
-    </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L107">
+        <f t="shared" si="3"/>
+        <v>15814.013626421849</v>
+      </c>
+      <c r="M107">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="N107">
+        <f t="shared" si="5"/>
+        <v>291.48618718539205</v>
+      </c>
+    </row>
+    <row r="108" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>25000</v>
       </c>
@@ -4693,8 +9054,20 @@
       <c r="K108">
         <v>453.2531788</v>
       </c>
-    </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L108">
+        <f t="shared" si="3"/>
+        <v>15745.436953983719</v>
+      </c>
+      <c r="M108">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="N108">
+        <f t="shared" si="5"/>
+        <v>296.10763260210899</v>
+      </c>
+    </row>
+    <row r="109" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>25000</v>
       </c>
@@ -4728,8 +9101,20 @@
       <c r="K109">
         <v>448.94781180000001</v>
       </c>
-    </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L109">
+        <f t="shared" si="3"/>
+        <v>15955.51635329801</v>
+      </c>
+      <c r="M109">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="N109">
+        <f t="shared" si="5"/>
+        <v>289.96207686042499</v>
+      </c>
+    </row>
+    <row r="110" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>25000</v>
       </c>
@@ -4763,8 +9148,20 @@
       <c r="K110">
         <v>473.93326880000001</v>
       </c>
-    </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L110">
+        <f t="shared" si="3"/>
+        <v>15770.074052564571</v>
+      </c>
+      <c r="M110">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="N110">
+        <f t="shared" si="5"/>
+        <v>315.627980962018</v>
+      </c>
+    </row>
+    <row r="111" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>25000</v>
       </c>
@@ -4798,8 +9195,20 @@
       <c r="K111">
         <v>453.37222730000002</v>
       </c>
-    </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L111">
+        <f t="shared" si="3"/>
+        <v>16152.462218376651</v>
+      </c>
+      <c r="M111">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="N111">
+        <f t="shared" si="5"/>
+        <v>299.60778914768701</v>
+      </c>
+    </row>
+    <row r="112" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>25000</v>
       </c>
@@ -4833,8 +9242,20 @@
       <c r="K112">
         <v>464.39600799999999</v>
       </c>
-    </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L112">
+        <f t="shared" si="3"/>
+        <v>15890.936953983719</v>
+      </c>
+      <c r="M112">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="N112">
+        <f t="shared" si="5"/>
+        <v>305.06863902531501</v>
+      </c>
+    </row>
+    <row r="113" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>25000</v>
       </c>
@@ -4868,8 +9289,20 @@
       <c r="K113">
         <v>398.15220160000001</v>
       </c>
-    </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L113">
+        <f t="shared" si="3"/>
+        <v>15181.400744454741</v>
+      </c>
+      <c r="M113">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="N113">
+        <f t="shared" si="5"/>
+        <v>343.32637567035829</v>
+      </c>
+    </row>
+    <row r="114" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>25000</v>
       </c>
@@ -4903,8 +9336,20 @@
       <c r="K114">
         <v>480.40758749999998</v>
       </c>
-    </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L114">
+        <f t="shared" si="3"/>
+        <v>15966.169603188271</v>
+      </c>
+      <c r="M114">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="N114">
+        <f t="shared" si="5"/>
+        <v>324.09367653884897</v>
+      </c>
+    </row>
+    <row r="115" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>25000</v>
       </c>
@@ -4938,8 +9383,20 @@
       <c r="K115">
         <v>475.38778000000002</v>
       </c>
-    </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L115">
+        <f t="shared" si="3"/>
+        <v>15852.895270710409</v>
+      </c>
+      <c r="M115">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="N115">
+        <f t="shared" si="5"/>
+        <v>318.77759008529699</v>
+      </c>
+    </row>
+    <row r="116" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>25000</v>
       </c>
@@ -4973,8 +9430,20 @@
       <c r="K116">
         <v>526.89246869999999</v>
       </c>
-    </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L116">
+        <f t="shared" si="3"/>
+        <v>15804.263626421849</v>
+      </c>
+      <c r="M116">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="N116">
+        <f t="shared" si="5"/>
+        <v>360.83555770833198</v>
+      </c>
+    </row>
+    <row r="117" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>25000</v>
       </c>
@@ -5008,8 +9477,20 @@
       <c r="K117">
         <v>437.8340422</v>
       </c>
-    </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L117">
+        <f t="shared" si="3"/>
+        <v>15821.596959755148</v>
+      </c>
+      <c r="M117">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="N117">
+        <f t="shared" si="5"/>
+        <v>279.79022611036999</v>
+      </c>
+    </row>
+    <row r="118" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>25000</v>
       </c>
@@ -5043,8 +9524,20 @@
       <c r="K118">
         <v>480.2650107</v>
       </c>
-    </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L118">
+        <f t="shared" si="3"/>
+        <v>15841.694413904661</v>
+      </c>
+      <c r="M118">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="N118">
+        <f t="shared" si="5"/>
+        <v>310.90524350143801</v>
+      </c>
+    </row>
+    <row r="119" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>25000</v>
       </c>
@@ -5078,8 +9571,20 @@
       <c r="K119">
         <v>489.5740313</v>
       </c>
-    </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L119">
+        <f t="shared" si="3"/>
+        <v>15837.34815211497</v>
+      </c>
+      <c r="M119">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="N119">
+        <f t="shared" si="5"/>
+        <v>321.828132099561</v>
+      </c>
+    </row>
+    <row r="120" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>25000</v>
       </c>
@@ -5113,8 +9618,20 @@
       <c r="K120">
         <v>611.61693549999995</v>
       </c>
-    </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L120">
+        <f t="shared" si="3"/>
+        <v>15609.97303232629</v>
+      </c>
+      <c r="M120">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="N120">
+        <f t="shared" si="5"/>
+        <v>361.50281644711396</v>
+      </c>
+    </row>
+    <row r="121" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>25000</v>
       </c>
@@ -5148,8 +9665,20 @@
       <c r="K121">
         <v>459.99220530000002</v>
       </c>
-    </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L121">
+        <f t="shared" si="3"/>
+        <v>15906.810595356661</v>
+      </c>
+      <c r="M121">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="N121">
+        <f t="shared" si="5"/>
+        <v>300.41250840630801</v>
+      </c>
+    </row>
+    <row r="122" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>25000</v>
       </c>
@@ -5183,8 +9712,20 @@
       <c r="K122">
         <v>470.02482759999998</v>
       </c>
-    </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L122">
+        <f t="shared" si="3"/>
+        <v>15678.58159893944</v>
+      </c>
+      <c r="M122">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="N122">
+        <f t="shared" si="5"/>
+        <v>314.93112576055296</v>
+      </c>
+    </row>
+    <row r="123" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>25000</v>
       </c>
@@ -5218,8 +9759,20 @@
       <c r="K123">
         <v>462.2331226</v>
       </c>
-    </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L123">
+        <f t="shared" si="3"/>
+        <v>15712.098714419741</v>
+      </c>
+      <c r="M123">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="N123">
+        <f t="shared" si="5"/>
+        <v>304.66040064184</v>
+      </c>
+    </row>
+    <row r="124" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>25000</v>
       </c>
@@ -5253,8 +9806,20 @@
       <c r="K124">
         <v>457.37592030000002</v>
       </c>
-    </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L124">
+        <f t="shared" si="3"/>
+        <v>15974.82627972248</v>
+      </c>
+      <c r="M124">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="N124">
+        <f t="shared" si="5"/>
+        <v>295.67175651025104</v>
+      </c>
+    </row>
+    <row r="125" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>25000</v>
       </c>
@@ -5288,8 +9853,20 @@
       <c r="K125">
         <v>494.92911299999997</v>
       </c>
-    </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L125">
+        <f t="shared" si="3"/>
+        <v>15766.82976241283</v>
+      </c>
+      <c r="M125">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="N125">
+        <f t="shared" si="5"/>
+        <v>337.24452909764096</v>
+      </c>
+    </row>
+    <row r="126" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>25000</v>
       </c>
@@ -5322,6 +9899,18 @@
       </c>
       <c r="K126">
         <v>475.53772739999999</v>
+      </c>
+      <c r="L126">
+        <f t="shared" si="3"/>
+        <v>15658.12677199951</v>
+      </c>
+      <c r="M126">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="N126">
+        <f t="shared" si="5"/>
+        <v>314.05671243303595</v>
       </c>
     </row>
   </sheetData>
